--- a/Lacex_summary_othersolutionbcrm.xlsx
+++ b/Lacex_summary_othersolutionbcrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708E69B3-8F78-4175-996C-42213D08ED1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C50A2-EF7A-4516-ACC7-85F6EAE276FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53B6AA18-EEB8-4C27-8B10-7FFFAF295B23}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="23">
   <si>
     <t>HK-2</t>
   </si>
@@ -458,38 +458,38 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>47.843520902558616</v>
+        <v>47.665047328253934</v>
       </c>
       <c r="B1">
-        <v>2.5054710835499868E-3</v>
+        <v>2.5060863274279973E-3</v>
       </c>
       <c r="C1">
-        <v>0.26723029129594106</v>
+        <v>0.26786803250967689</v>
       </c>
       <c r="D1">
-        <v>30.091969934919582</v>
+        <v>30.091935347161499</v>
       </c>
       <c r="E1">
-        <v>4.2292285827943754</v>
+        <v>4.2292285895141498E-21</v>
       </c>
       <c r="F1">
-        <v>0.11992727176110662</v>
+        <v>0.1199728088450701</v>
       </c>
       <c r="G1">
-        <v>37.604011365431099</v>
+        <v>37.604102958375165</v>
       </c>
       <c r="H1">
-        <v>0.10085613141711358</v>
+        <v>0.10092351810579282</v>
       </c>
       <c r="I1">
-        <v>0.89999999999997782</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J1">
         <v>3.5183343336118367</v>
@@ -501,51 +501,51 @@
         <v>500000000</v>
       </c>
       <c r="M1">
-        <v>0.99646893869895914</v>
+        <v>0.99646258507587759</v>
       </c>
       <c r="N1">
-        <v>0.993741557660617</v>
+        <v>0.99374464306743904</v>
       </c>
       <c r="O1">
-        <v>0.99317194111501439</v>
+        <v>0.99317449327937091</v>
       </c>
       <c r="P1">
-        <v>0.10037191202132248</v>
+        <v>0.10046455759605102</v>
       </c>
       <c r="Q1">
-        <v>0.11483120613416195</v>
+        <v>0.11480350082190742</v>
       </c>
       <c r="R1">
-        <v>0.15482029168130582</v>
+        <v>0.15480889576242526</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>47.917709421997237</v>
+        <v>47.68965729107672</v>
       </c>
       <c r="B2">
-        <v>2.2270002586046275E-3</v>
+        <v>2.2274209468415651E-3</v>
       </c>
       <c r="C2">
-        <v>0.34459737728236672</v>
+        <v>0.34577122303871211</v>
       </c>
       <c r="D2">
-        <v>24.020839389907295</v>
+        <v>24.028678982924035</v>
       </c>
       <c r="E2">
-        <v>5.9487280579708379</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F2">
-        <v>0.14522563058086507</v>
+        <v>0.14528959675788361</v>
       </c>
       <c r="G2">
-        <v>37.649781006711791</v>
+        <v>37.649719389661854</v>
       </c>
       <c r="H2">
-        <v>6.7458293369808936E-2</v>
+        <v>6.7521609695106719E-2</v>
       </c>
       <c r="I2">
-        <v>0.89999999999997782</v>
+        <v>9.3568134861960386E-21</v>
       </c>
       <c r="J2">
         <v>3.6114128380547785</v>
@@ -557,51 +557,51 @@
         <v>500000000</v>
       </c>
       <c r="M2">
-        <v>0.99746336015978865</v>
+        <v>0.9974552987507872</v>
       </c>
       <c r="N2">
-        <v>0.98725969359367916</v>
+        <v>0.98725170847574573</v>
       </c>
       <c r="O2">
-        <v>0.99466110302293831</v>
+        <v>0.9946604237015787</v>
       </c>
       <c r="P2">
-        <v>8.4544188173760262E-2</v>
+        <v>8.4652163486773874E-2</v>
       </c>
       <c r="Q2">
-        <v>0.15959547725891834</v>
+        <v>0.15964454013403592</v>
       </c>
       <c r="R2">
-        <v>0.10343645094782088</v>
+        <v>0.10344390844114673</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>47.853932264180614</v>
+        <v>47.942889655754662</v>
       </c>
       <c r="B3">
-        <v>2.307728276552329E-3</v>
+        <v>2.2926260173828737E-3</v>
       </c>
       <c r="C3">
-        <v>0.31221203920690299</v>
+        <v>0.31181121908849657</v>
       </c>
       <c r="D3">
-        <v>25.321402489161461</v>
+        <v>27.072789214551275</v>
       </c>
       <c r="E3">
-        <v>8.9610627698048901</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F3">
-        <v>0.10294297941057269</v>
+        <v>0.10425763837252203</v>
       </c>
       <c r="G3">
-        <v>37.652607408164492</v>
+        <v>37.651222000375121</v>
       </c>
       <c r="H3">
-        <v>5.8263123663876204E-2</v>
+        <v>5.9975913418495737E-2</v>
       </c>
       <c r="I3">
-        <v>0.89999999999997782</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J3">
         <v>4.7730199554881851</v>
@@ -613,51 +613,51 @@
         <v>500000000</v>
       </c>
       <c r="M3">
-        <v>0.99713086812626672</v>
+        <v>0.99713443862751416</v>
       </c>
       <c r="N3">
-        <v>0.98862490510231416</v>
+        <v>0.98853120704267705</v>
       </c>
       <c r="O3">
-        <v>0.99506323258075691</v>
+        <v>0.99500039835559384</v>
       </c>
       <c r="P3">
-        <v>9.1291952497692147E-2</v>
+        <v>9.1245943513368885E-2</v>
       </c>
       <c r="Q3">
-        <v>0.15023785303899792</v>
+        <v>0.15084404210667168</v>
       </c>
       <c r="R3">
-        <v>0.12620132079371424</v>
+        <v>0.12693996865865456</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>48.989773089492765</v>
+        <v>48.91902351537702</v>
       </c>
       <c r="B4">
-        <v>0.12938744342120162</v>
+        <v>0.14240815275134114</v>
       </c>
       <c r="C4">
-        <v>0.25155805670723619</v>
+        <v>0.23886403030857367</v>
       </c>
       <c r="D4">
-        <v>9.9042686499075678</v>
+        <v>9.9128931101830489</v>
       </c>
       <c r="E4">
-        <v>1.5664431810638917</v>
+        <v>9.5001011555012064E-21</v>
       </c>
       <c r="F4">
-        <v>8.2143852465183542</v>
+        <v>9.0535822701344113</v>
       </c>
       <c r="G4">
-        <v>35.700000410632768</v>
+        <v>35.700000104662571</v>
       </c>
       <c r="H4">
-        <v>7.8271847941107096</v>
+        <v>8.6305047248715212</v>
       </c>
       <c r="I4">
-        <v>0.443441055314167</v>
+        <v>9.5000020808823979E-21</v>
       </c>
       <c r="J4">
         <v>3.7405390179784384</v>
@@ -669,51 +669,51 @@
         <v>500000000</v>
       </c>
       <c r="M4">
-        <v>0.9968894059191642</v>
+        <v>0.99688766932674155</v>
       </c>
       <c r="N4">
-        <v>0.9672839150615129</v>
+        <v>0.96731497067981398</v>
       </c>
       <c r="O4">
-        <v>0.98640110369041478</v>
+        <v>0.98643646281744601</v>
       </c>
       <c r="P4">
-        <v>8.8165672511598028E-2</v>
+        <v>8.8191414698650564E-2</v>
       </c>
       <c r="Q4">
-        <v>0.25714934448024257</v>
+        <v>0.25703094110321423</v>
       </c>
       <c r="R4">
-        <v>0.17030827001840407</v>
+        <v>0.17010195239199535</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>48.569542298836033</v>
+        <v>48.490353666604626</v>
       </c>
       <c r="B5">
-        <v>6.8437325225220629E-3</v>
+        <v>6.8450258155058749E-3</v>
       </c>
       <c r="C5">
-        <v>0.35067328134290149</v>
+        <v>0.35102793589897163</v>
       </c>
       <c r="D5">
-        <v>9.9009900990143684</v>
+        <v>9.9009900990667905</v>
       </c>
       <c r="E5">
-        <v>9.5</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F5">
-        <v>0.62187309263217483</v>
+        <v>0.62201962324364202</v>
       </c>
       <c r="G5">
-        <v>37.593869631177022</v>
+        <v>37.580937713643564</v>
       </c>
       <c r="H5">
-        <v>0.4111983922557414</v>
+        <v>0.41130137481440537</v>
       </c>
       <c r="I5">
-        <v>3.3312940916278309E-2</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J5">
         <v>4.8160681464098678</v>
@@ -725,22 +725,22 @@
         <v>500000000</v>
       </c>
       <c r="M5">
-        <v>0.99621841740021067</v>
+        <v>0.99621623502459156</v>
       </c>
       <c r="N5">
-        <v>0.98134940913747837</v>
+        <v>0.98134743446521111</v>
       </c>
       <c r="O5">
-        <v>0.9868315719019114</v>
+        <v>0.98683235282895465</v>
       </c>
       <c r="P5">
-        <v>9.6813527704251334E-2</v>
+        <v>9.6843398891881052E-2</v>
       </c>
       <c r="Q5">
-        <v>0.19128079707565215</v>
+        <v>0.19129083405837224</v>
       </c>
       <c r="R5">
-        <v>0.16132100358966872</v>
+        <v>0.16131613565815811</v>
       </c>
       <c r="T5" s="1">
         <f>1/51</f>
@@ -778,31 +778,31 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>49.563234876992162</v>
+        <v>48.442803660301884</v>
       </c>
       <c r="B6">
-        <v>1.4404751880160058E-2</v>
+        <v>1.4439543937075168E-2</v>
       </c>
       <c r="C6">
-        <v>0.33056888112091221</v>
+        <v>0.33513294563923351</v>
       </c>
       <c r="D6">
-        <v>9.900990099014372</v>
+        <v>9.9010966922563846</v>
       </c>
       <c r="E6">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F6">
-        <v>0.47861337885837868</v>
+        <v>0.48008118854422488</v>
       </c>
       <c r="G6">
-        <v>37.590290807667152</v>
+        <v>37.620257134093954</v>
       </c>
       <c r="H6">
-        <v>0.23916533763718828</v>
+        <v>0.24016205612757893</v>
       </c>
       <c r="I6">
-        <v>4.9999589258831627E-2</v>
+        <v>5.0189850601218664E-21</v>
       </c>
       <c r="J6">
         <v>2.8009906026203648</v>
@@ -814,22 +814,22 @@
         <v>500000000</v>
       </c>
       <c r="M6">
-        <v>0.99699022961175299</v>
+        <v>0.99696128023208674</v>
       </c>
       <c r="N6">
-        <v>0.98687052384422724</v>
+        <v>0.98685113675435354</v>
       </c>
       <c r="O6">
-        <v>0.99247911206471051</v>
+        <v>0.9924820589752732</v>
       </c>
       <c r="P6">
-        <v>8.8661104339373381E-2</v>
+        <v>8.9110648306495774E-2</v>
       </c>
       <c r="Q6">
-        <v>0.17687312383481077</v>
+        <v>0.17697157982429329</v>
       </c>
       <c r="R6">
-        <v>0.14910054241459117</v>
+        <v>0.14907564427322076</v>
       </c>
       <c r="T6" s="1">
         <f>1/47</f>
@@ -864,31 +864,31 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>47.970658128665868</v>
+        <v>47.983173266905368</v>
       </c>
       <c r="B7">
-        <v>9.5963839960449705E-3</v>
+        <v>9.596229301603058E-3</v>
       </c>
       <c r="C7">
-        <v>0.24576839613353749</v>
+        <v>0.24573169455568655</v>
       </c>
       <c r="D7">
-        <v>25.481481326044499</v>
+        <v>25.481481140548624</v>
       </c>
       <c r="E7">
-        <v>5.5333888199279926</v>
+        <v>5.5333888176577347E-21</v>
       </c>
       <c r="F7">
-        <v>7.3795237296691976E-2</v>
+        <v>7.3793020371526755E-2</v>
       </c>
       <c r="G7">
-        <v>37.605097395784895</v>
+        <v>37.605104679071957</v>
       </c>
       <c r="H7">
-        <v>9.2054111139732483E-2</v>
+        <v>9.2049023847089559E-2</v>
       </c>
       <c r="I7">
-        <v>0.89998352108314439</v>
+        <v>7.7902940717434487E-21</v>
       </c>
       <c r="J7">
         <v>2.7047004944585327</v>
@@ -900,51 +900,51 @@
         <v>500000000</v>
       </c>
       <c r="M7">
-        <v>0.99600882718959116</v>
+        <v>0.99600921380006779</v>
       </c>
       <c r="N7">
-        <v>0.99806233640461584</v>
+        <v>0.99806237739276782</v>
       </c>
       <c r="O7">
-        <v>0.99607420963802973</v>
+        <v>0.99607433929226552</v>
       </c>
       <c r="P7">
-        <v>0.10515124061811383</v>
+        <v>0.10514496817240916</v>
       </c>
       <c r="Q7">
-        <v>6.7232349371527458E-2</v>
+        <v>6.7231730782451399E-2</v>
       </c>
       <c r="R7">
-        <v>9.9475865064344846E-2</v>
+        <v>9.9474068195009993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>48.015279096414581</v>
+        <v>48.011077738972219</v>
       </c>
       <c r="B8">
-        <v>1.3289034301908319E-2</v>
+        <v>1.328919693820328E-2</v>
       </c>
       <c r="C8">
-        <v>0.29603775677977429</v>
+        <v>0.29605392150437776</v>
       </c>
       <c r="D8">
-        <v>23.564429559618091</v>
+        <v>23.564423020463465</v>
       </c>
       <c r="E8">
-        <v>6.7396318596257769</v>
+        <v>6.7396318658010479E-21</v>
       </c>
       <c r="F8">
-        <v>0.16991956739843667</v>
+        <v>0.1699226652029634</v>
       </c>
       <c r="G8">
-        <v>37.400515577626706</v>
+        <v>37.400505936446869</v>
       </c>
       <c r="H8">
-        <v>0.34701068605467222</v>
+        <v>0.34701851195209921</v>
       </c>
       <c r="I8">
-        <v>0.89999999999997782</v>
+        <v>7.3871715363161034E-21</v>
       </c>
       <c r="J8">
         <v>3.9130472719370726</v>
@@ -956,51 +956,51 @@
         <v>500000000</v>
       </c>
       <c r="M8">
-        <v>0.99635124412663223</v>
+        <v>0.99635110549084294</v>
       </c>
       <c r="N8">
-        <v>0.9970030393621343</v>
+        <v>0.99700304742734724</v>
       </c>
       <c r="O8">
-        <v>0.98928464416217032</v>
+        <v>0.98928444248529646</v>
       </c>
       <c r="P8">
-        <v>9.9026619185181325E-2</v>
+        <v>9.9028585968744379E-2</v>
       </c>
       <c r="Q8">
-        <v>7.8575447001876145E-2</v>
+        <v>7.8575344428940277E-2</v>
       </c>
       <c r="R8">
-        <v>0.15303408734748741</v>
+        <v>0.15303544026671645</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>48.421279731344846</v>
+        <v>48.420279655564258</v>
       </c>
       <c r="B9">
-        <v>2.6473133722373716E-2</v>
+        <v>2.6473137499452477E-2</v>
       </c>
       <c r="C9">
-        <v>0.32510016898155197</v>
+        <v>0.32510444989854898</v>
       </c>
       <c r="D9">
-        <v>9.900990099014253</v>
+        <v>9.9009900990998094</v>
       </c>
       <c r="E9">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F9">
-        <v>3.4442724497264816</v>
+        <v>3.4442724701304059</v>
       </c>
       <c r="G9">
-        <v>35.700000000149515</v>
+        <v>35.700000000033974</v>
       </c>
       <c r="H9">
-        <v>9.9999999986372394</v>
+        <v>9.999999999690349</v>
       </c>
       <c r="I9">
-        <v>0.89649672655120893</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J9">
         <v>4.2882113234860197</v>
@@ -1012,51 +1012,51 @@
         <v>500000000</v>
       </c>
       <c r="M9">
-        <v>0.99476835929961294</v>
+        <v>0.99476833213578231</v>
       </c>
       <c r="N9">
-        <v>0.95877788178206225</v>
+        <v>0.95877783576358655</v>
       </c>
       <c r="O9">
-        <v>0.97616023854929179</v>
+        <v>0.97616023426775422</v>
       </c>
       <c r="P9">
-        <v>0.11067727203171211</v>
+        <v>0.11067761101737522</v>
       </c>
       <c r="Q9">
-        <v>0.29359827084392681</v>
+        <v>0.29359842424680244</v>
       </c>
       <c r="R9">
-        <v>0.22006223208173251</v>
+        <v>0.22006225943942273</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>48.770068710454439</v>
+        <v>48.42814030140066</v>
       </c>
       <c r="B10">
-        <v>6.522689440394319E-3</v>
+        <v>6.5363302149284994E-3</v>
       </c>
       <c r="C10">
-        <v>0.21311695198438299</v>
+        <v>0.21407578877253053</v>
       </c>
       <c r="D10">
-        <v>9.900990099014253</v>
+        <v>9.900990099016413</v>
       </c>
       <c r="E10">
-        <v>1.7621266652699381</v>
+        <v>9.5000002601914286E-21</v>
       </c>
       <c r="F10">
-        <v>0.71743316173673732</v>
+        <v>0.71917372099567534</v>
       </c>
       <c r="G10">
-        <v>37.481542105377549</v>
+        <v>37.502496746565853</v>
       </c>
       <c r="H10">
-        <v>0.75805477550903755</v>
+        <v>0.76010752143394389</v>
       </c>
       <c r="I10">
-        <v>0.3301060554524049</v>
+        <v>4.1669216446937239E-21</v>
       </c>
       <c r="J10">
         <v>1.6193816111291905</v>
@@ -1068,51 +1068,51 @@
         <v>500000000</v>
       </c>
       <c r="M10">
-        <v>0.99729687892240815</v>
+        <v>0.99728541814109017</v>
       </c>
       <c r="N10">
-        <v>0.9883237082165055</v>
+        <v>0.98831707151600656</v>
       </c>
       <c r="O10">
-        <v>0.98574844955210228</v>
+        <v>0.98574619148303289</v>
       </c>
       <c r="P10">
-        <v>9.4130677046179292E-2</v>
+        <v>9.4326243959452397E-2</v>
       </c>
       <c r="Q10">
-        <v>0.15267803887704443</v>
+        <v>0.15272115547464876</v>
       </c>
       <c r="R10">
-        <v>0.16933333509787596</v>
+        <v>0.16934547738618477</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>50.840257342461364</v>
+        <v>47.927878943733575</v>
       </c>
       <c r="B11">
-        <v>1.0016072563218677E-2</v>
+        <v>1.0063987647282909E-2</v>
       </c>
       <c r="C11">
-        <v>0.33451546614834493</v>
+        <v>0.34820548293423398</v>
       </c>
       <c r="D11">
-        <v>27.843383963043483</v>
+        <v>27.7953560925957</v>
       </c>
       <c r="E11">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F11">
-        <v>0.10175973490461612</v>
+        <v>0.10262497921144996</v>
       </c>
       <c r="G11">
-        <v>37.585201391528507</v>
+        <v>37.583427531808773</v>
       </c>
       <c r="H11">
-        <v>0.15901977261560321</v>
+        <v>0.16102040782665275</v>
       </c>
       <c r="I11">
-        <v>2.9014662626911767E-3</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J11">
         <v>4.481130698667652</v>
@@ -1124,51 +1124,51 @@
         <v>500000000</v>
       </c>
       <c r="M11">
-        <v>0.99683092527840411</v>
+        <v>0.99673269289058364</v>
       </c>
       <c r="N11">
-        <v>0.98624758027791459</v>
+        <v>0.98625335697242611</v>
       </c>
       <c r="O11">
-        <v>0.9873281168522402</v>
+        <v>0.98733284523773768</v>
       </c>
       <c r="P11">
-        <v>9.1688145030934129E-2</v>
+        <v>9.2943165172953202E-2</v>
       </c>
       <c r="Q11">
-        <v>0.17313027592957506</v>
+        <v>0.17309779947223572</v>
       </c>
       <c r="R11">
-        <v>0.18398248467357989</v>
+        <v>0.18401771089169897</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>50.746974012619752</v>
+        <v>50.883431754073243</v>
       </c>
       <c r="B12">
-        <v>0.18949151318025301</v>
+        <v>0.18949002535066614</v>
       </c>
       <c r="C12">
-        <v>0.17700168562273033</v>
+        <v>0.17635805847908939</v>
       </c>
       <c r="D12">
-        <v>9.9009901045187405</v>
+        <v>9.9009903341155265</v>
       </c>
       <c r="E12">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F12">
-        <v>4.9870131447801418</v>
+        <v>4.9869999734931616</v>
       </c>
       <c r="G12">
-        <v>35.700000082518876</v>
+        <v>35.700000053580808</v>
       </c>
       <c r="H12">
-        <v>9.999999155881234</v>
+        <v>9.9999994519119113</v>
       </c>
       <c r="I12">
-        <v>4.473419903958218E-2</v>
+        <v>9.9975572178313673E-21</v>
       </c>
       <c r="J12">
         <v>7.3408895358905255</v>
@@ -1180,51 +1180,51 @@
         <v>500000000</v>
       </c>
       <c r="M12">
-        <v>0.9971074587402049</v>
+        <v>0.99711161740378085</v>
       </c>
       <c r="N12">
-        <v>0.95720417247072409</v>
+        <v>0.95721086176852244</v>
       </c>
       <c r="O12">
-        <v>0.9750129897524985</v>
+        <v>0.97501066137571435</v>
       </c>
       <c r="P12">
-        <v>8.7553614434384794E-2</v>
+        <v>8.7498748472949528E-2</v>
       </c>
       <c r="Q12">
-        <v>0.29239951518557905</v>
+        <v>0.29237771830563541</v>
       </c>
       <c r="R12">
-        <v>0.22137718952913987</v>
+        <v>0.22138697314531056</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>47.898552347386442</v>
+        <v>47.92194310092578</v>
       </c>
       <c r="B13">
-        <v>7.4778750367891049E-3</v>
+        <v>7.464907433830081E-3</v>
       </c>
       <c r="C13">
-        <v>0.33930521765705207</v>
+        <v>0.33920486327410887</v>
       </c>
       <c r="D13">
-        <v>25.279623743670875</v>
+        <v>24.368282740171008</v>
       </c>
       <c r="E13">
-        <v>1.7757565185031829</v>
+        <v>9.5019044347325565E-21</v>
       </c>
       <c r="F13">
-        <v>0.1652664135160935</v>
+        <v>0.16334689724605228</v>
       </c>
       <c r="G13">
-        <v>37.295338510553023</v>
+        <v>37.300783831223875</v>
       </c>
       <c r="H13">
-        <v>0.54342413270027168</v>
+        <v>0.53604902341420302</v>
       </c>
       <c r="I13">
-        <v>0.89824214405639502</v>
+        <v>9.9998326587134848E-21</v>
       </c>
       <c r="J13">
         <v>3.3265000203244384</v>
@@ -1236,51 +1236,51 @@
         <v>500000000</v>
       </c>
       <c r="M13">
-        <v>0.99728568514983074</v>
+        <v>0.99728647944169224</v>
       </c>
       <c r="N13">
-        <v>0.99744888339363214</v>
+        <v>0.99743979310497055</v>
       </c>
       <c r="O13">
-        <v>0.94352089378426407</v>
+        <v>0.94380257139719248</v>
       </c>
       <c r="P13">
-        <v>8.6791697445972579E-2</v>
+        <v>8.6780728586415903E-2</v>
       </c>
       <c r="Q13">
-        <v>7.7767118200135654E-2</v>
+        <v>7.787687766061259E-2</v>
       </c>
       <c r="R13">
-        <v>0.34335950047646963</v>
+        <v>0.34253927326171629</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>48.103052312374402</v>
+        <v>47.911499258769297</v>
       </c>
       <c r="B14">
-        <v>4.459785928090927E-3</v>
+        <v>4.4599789056276855E-3</v>
       </c>
       <c r="C14">
-        <v>0.28543605501669816</v>
+        <v>0.28620130228558183</v>
       </c>
       <c r="D14">
-        <v>27.885716831533006</v>
+        <v>27.968091490427902</v>
       </c>
       <c r="E14">
-        <v>9.5000000000000018</v>
+        <v>5.8857080544565737E-21</v>
       </c>
       <c r="F14">
-        <v>3.7020776957019337E-2</v>
+        <v>3.7131106284392805E-2</v>
       </c>
       <c r="G14">
-        <v>37.639052199761679</v>
+        <v>37.638648843939215</v>
       </c>
       <c r="H14">
-        <v>6.8950851465654411E-2</v>
+        <v>6.93880438372E-2</v>
       </c>
       <c r="I14">
-        <v>0.19591124395432585</v>
+        <v>8.4576120029207767E-21</v>
       </c>
       <c r="J14">
         <v>2.5658017063085969</v>
@@ -1292,51 +1292,51 @@
         <v>500000000</v>
       </c>
       <c r="M14">
-        <v>0.99720380595985758</v>
+        <v>0.9971968237127149</v>
       </c>
       <c r="N14">
-        <v>0.99716244018792288</v>
+        <v>0.99715958477291577</v>
       </c>
       <c r="O14">
-        <v>0.99507398920192858</v>
+        <v>0.99502611367769767</v>
       </c>
       <c r="P14">
-        <v>9.1330556163301657E-2</v>
+        <v>9.1431257017684592E-2</v>
       </c>
       <c r="Q14">
-        <v>8.705506778003462E-2</v>
+        <v>8.7085705075993558E-2</v>
       </c>
       <c r="R14">
-        <v>0.11005157316175686</v>
+        <v>0.1105401970155631</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>48.132686581398708</v>
+        <v>48.096610984098398</v>
       </c>
       <c r="B15">
-        <v>6.0880723547631797E-3</v>
+        <v>6.0836280858658541E-3</v>
       </c>
       <c r="C15">
-        <v>0.41745300534916818</v>
+        <v>0.41767200525365283</v>
       </c>
       <c r="D15">
-        <v>18.943517151580007</v>
+        <v>18.5251778768978</v>
       </c>
       <c r="E15">
-        <v>0.96975131869519171</v>
+        <v>9.5000021566130448E-21</v>
       </c>
       <c r="F15">
-        <v>9.6280739626857334E-2</v>
+        <v>9.4942417452223996E-2</v>
       </c>
       <c r="G15">
-        <v>37.630941170233179</v>
+        <v>37.650571380034272</v>
       </c>
       <c r="H15">
-        <v>0.10220725497823177</v>
+        <v>9.969724244697023E-2</v>
       </c>
       <c r="I15">
-        <v>0.89999999999997782</v>
+        <v>3.9269926138194111E-21</v>
       </c>
       <c r="J15">
         <v>4.1031742274493235</v>
@@ -1348,51 +1348,51 @@
         <v>500000000</v>
       </c>
       <c r="M15">
-        <v>0.99745824349143342</v>
+        <v>0.99745722894995803</v>
       </c>
       <c r="N15">
-        <v>0.98765049871417387</v>
+        <v>0.98763328714362708</v>
       </c>
       <c r="O15">
-        <v>0.98671379491247191</v>
+        <v>0.98707793858448944</v>
       </c>
       <c r="P15">
-        <v>8.0557591933000133E-2</v>
+        <v>8.0571597078718415E-2</v>
       </c>
       <c r="Q15">
-        <v>0.15679023395231595</v>
+        <v>0.15689669883959578</v>
       </c>
       <c r="R15">
-        <v>0.16593557792773636</v>
+        <v>0.16367390958088587</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>48.01749571779132</v>
+        <v>47.989748544625023</v>
       </c>
       <c r="B16">
-        <v>1.2764051732304103E-2</v>
+        <v>1.2092645161224953E-2</v>
       </c>
       <c r="C16">
-        <v>0.34868169412049954</v>
+        <v>0.34945999322974131</v>
       </c>
       <c r="D16">
-        <v>16.922936329712023</v>
+        <v>17.048568247460995</v>
       </c>
       <c r="E16">
-        <v>0.49999999999999928</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F16">
-        <v>1.6155830362089532</v>
+        <v>1.5258363793594234</v>
       </c>
       <c r="G16">
-        <v>35.989182589867795</v>
+        <v>36.130109455643627</v>
       </c>
       <c r="H16">
-        <v>8.222251229093601</v>
+        <v>7.7560144029992175</v>
       </c>
       <c r="I16">
-        <v>0.89789694421025057</v>
+        <v>9.5521973750652646E-21</v>
       </c>
       <c r="J16">
         <v>4.8975994027500533</v>
@@ -1404,22 +1404,22 @@
         <v>500000000</v>
       </c>
       <c r="M16">
-        <v>0.9920458667987937</v>
+        <v>0.99204518030069133</v>
       </c>
       <c r="N16">
-        <v>0.97896809466166756</v>
+        <v>0.97896438372293493</v>
       </c>
       <c r="O16">
-        <v>0.96241786720123135</v>
+        <v>0.96271977366898231</v>
       </c>
       <c r="P16">
-        <v>0.13238434032668572</v>
+        <v>0.13239243479427432</v>
       </c>
       <c r="Q16">
-        <v>0.22534006307173257</v>
+        <v>0.22538089825792318</v>
       </c>
       <c r="R16">
-        <v>0.27145791390412882</v>
+        <v>0.27042760666782317</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -1455,9 +1455,9 @@
         <f>_xlfn.IFS(ABS(H1-AA$5)&lt;=0.001*(H1),"Lower",ABS(H1-AA$6)&lt;=0.001*(H1),"Upper",TRUE,1)</f>
         <v>1</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q17">
         <f>_xlfn.IFS(ABS(I1-AB$5)&lt;=0.001*(I1),"Lower",ABS(I1-AB$6)&lt;=0.001*(I1),"Upper",TRUE,1)</f>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -1505,9 +1505,9 @@
         <f t="shared" ref="P18:Q32" si="4">_xlfn.IFS(ABS(H2-AA$5)&lt;=0.001*(H2),"Lower",ABS(H2-AA$6)&lt;=0.001*(H2),"Upper",TRUE,1)</f>
         <v>1</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="Q18">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -1516,19 +1516,19 @@
       </c>
       <c r="B19">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>47.871720862912156</v>
+        <v>47.765864758361772</v>
       </c>
       <c r="C19">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>49.040850088440322</v>
+        <v>48.61739361409451</v>
       </c>
       <c r="D19">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>49.127419503660143</v>
+        <v>48.608996943441554</v>
       </c>
       <c r="E19">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>48.03794673973772</v>
+        <v>47.979950472104626</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1562,27 +1562,27 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="Q19">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>2.3189866951950799E-2</v>
+        <v>8.8797096968795813E-2</v>
       </c>
       <c r="C20">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>0.28798893487815341</v>
+        <v>0.15143832494409543</v>
       </c>
       <c r="D20">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>0.54031029359920757</v>
+        <v>0.4638412597085339</v>
       </c>
       <c r="E20">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>5.2490804039004149E-2</v>
+        <v>4.257943654896007E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -1728,26 +1728,26 @@
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>STDEV(B5:B16)/SQRT(12)</f>
-        <v>1.4993329939771772E-2</v>
+        <v>1.4997116820455948E-2</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>2.3467332062356476E-3</v>
+        <v>2.3420444305508122E-3</v>
       </c>
       <c r="D23">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>5.0211975941294583E-2</v>
+        <v>5.4564240834640725E-2</v>
       </c>
       <c r="E23">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>4.2564804534032163E-2</v>
+        <v>4.2574817825356055E-2</v>
       </c>
       <c r="F23">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>7.6974462629868286E-3</v>
+        <v>7.5252898966371431E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -1781,27 +1781,27 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q23">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>8.27194827738861E-5</v>
+        <v>8.4153101060652284E-5</v>
       </c>
       <c r="D24">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>3.9647859300883694E-2</v>
+        <v>4.3976637062560373E-2</v>
       </c>
       <c r="E24">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>2.9523347298879028E-2</v>
+        <v>2.9520785824794723E-2</v>
       </c>
       <c r="F24">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>1.7979439953670928E-3</v>
+        <v>1.6416176067884074E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -1835,9 +1835,9 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q24">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="D27">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>0.30801323592840357</v>
+        <v>0.30848349154562849</v>
       </c>
       <c r="E27">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>0.31093340639034994</v>
+        <v>0.30834163728225961</v>
       </c>
       <c r="F27">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>0.26525673760838703</v>
+        <v>0.2675882326907445</v>
       </c>
       <c r="G27">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>0.34771899303585446</v>
+        <v>0.34813454101077124</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -1988,19 +1988,19 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.2432409294265876E-2</v>
+        <v>2.2550181829278024E-2</v>
       </c>
       <c r="E28">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>3.0249632722649258E-2</v>
+        <v>3.5040529305038398E-2</v>
       </c>
       <c r="F28">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>2.5956878213724589E-2</v>
+        <v>2.7253003698913397E-2</v>
       </c>
       <c r="G28">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>2.7101222683234009E-2</v>
+        <v>2.7007222738227404E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2130,26 +2130,26 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>STDEV(D5:D16)/SQRT(12)</f>
-        <v>2.2437465474206144</v>
+        <v>2.2219599835061885</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>26.478070604662779</v>
+        <v>27.064467848212271</v>
       </c>
       <c r="F31">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>9.9020829493121028</v>
+        <v>9.904993300502074</v>
       </c>
       <c r="G31">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>17.765377525208887</v>
+        <v>17.757371797639923</v>
       </c>
       <c r="H31">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>22.257948514123981</v>
+        <v>21.977530088739424</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2183,31 +2183,31 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="Q31">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>MIN(D5:D14)</f>
-        <v>9.900990099014253</v>
+        <v>9.900990099016413</v>
       </c>
       <c r="E32">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>1.8455412368470059</v>
+        <v>1.750316292223574</v>
       </c>
       <c r="F32">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>1.0928502977325394E-3</v>
+        <v>3.9500246950167905E-3</v>
       </c>
       <c r="G32">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>3.5603335274726593</v>
+        <v>3.5558076168409176</v>
       </c>
       <c r="H32">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>2.5860218433617379</v>
+        <v>2.5464996363491155</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -2249,7 +2249,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>MAX(G5:G14)</f>
-        <v>37.639052199761679</v>
+        <v>37.638648843939215</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2272,37 +2272,37 @@
       </c>
       <c r="F35">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>6.3796731368567015</v>
+        <v>7.7430761974680849E-21</v>
       </c>
       <c r="G35">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>6.8554810603546317</v>
+        <v>9.5000337194637694E-21</v>
       </c>
       <c r="H35">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>7.0891912241372852</v>
+        <v>8.3788368246642277E-21</v>
       </c>
       <c r="I35">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>3.1863769592995941</v>
+        <v>8.5969036618118067E-21</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F36">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.3828532025131137</v>
+        <v>1.7569238039769676E-21</v>
       </c>
       <c r="G36">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>2.6445189396453692</v>
+        <v>3.3718018718226638E-26</v>
       </c>
       <c r="H36">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>1.2695973974181964</v>
+        <v>7.2598428159774523E-22</v>
       </c>
       <c r="I36">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>2.1209615807870481</v>
+        <v>9.0373198047045866E-22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2322,44 +2322,44 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E39">
         <f>STDEV(F5:F16)/SQRT(12)</f>
-        <v>0.4565791640762622</v>
+        <v>0.45579503005764688</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>0.12269862725084812</v>
+        <v>0.12317334799182526</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>3.1049572393363025</v>
+        <v>3.3852276939740924</v>
       </c>
       <c r="I39">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>1.582365549307184</v>
+        <v>1.5827978049008637</v>
       </c>
       <c r="J39">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>0.47853774157723084</v>
+        <v>0.45531420008552315</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G40">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.2284352593645968E-2</v>
+        <v>1.1952517034177872E-2</v>
       </c>
       <c r="H40">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>2.5550487116576277</v>
+        <v>2.8344734567240444</v>
       </c>
       <c r="I40">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>0.86157631130367474</v>
+        <v>0.86146677409828565</v>
       </c>
       <c r="J40">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>0.3799197911639664</v>
+        <v>0.35777175730532479</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2382,37 +2382,37 @@
       </c>
       <c r="H43">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>37.635466593435801</v>
+        <v>37.635014782804042</v>
       </c>
       <c r="I43">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>36.961386949825645</v>
+        <v>36.967064984133366</v>
       </c>
       <c r="J43">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>36.912059425497674</v>
+        <v>36.915255824584705</v>
       </c>
       <c r="K43">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>37.138628617603921</v>
+        <v>37.180028377710251</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H44">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>1.5748763580182901E-2</v>
+        <v>1.5461997788992285E-2</v>
       </c>
       <c r="I44">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.6306941157532101</v>
+        <v>0.63363411124438584</v>
       </c>
       <c r="J44">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>0.38446922596418798</v>
+        <v>0.38541569557843924</v>
       </c>
       <c r="K44">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.391426831421746</v>
+        <v>0.35924168646690108</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2435,37 +2435,37 @@
       </c>
       <c r="I47">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>7.5525849483599569E-2</v>
+        <v>7.6140347073131762E-2</v>
       </c>
       <c r="J47">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>2.8258495080012138</v>
+        <v>3.0939893852711684</v>
       </c>
       <c r="K47">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>3.5593564166395866</v>
+        <v>3.560032486110341</v>
       </c>
       <c r="L47">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>2.2342083670594395</v>
+        <v>2.1152871781743978</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I48">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.2940313927203177E-2</v>
+        <v>1.2581581218860029E-2</v>
       </c>
       <c r="J48">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>2.5011607189485252</v>
+        <v>2.7686984755670943</v>
       </c>
       <c r="K48">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>2.0389106502631775</v>
+        <v>2.0387053662016772</v>
       </c>
       <c r="L48">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.9989409174082384</v>
+        <v>1.8832618606913929</v>
       </c>
     </row>
     <row r="50" spans="9:16" x14ac:dyDescent="0.3">
@@ -2488,37 +2488,37 @@
       </c>
       <c r="J51">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>0.89999999999997782</v>
+        <v>9.7856044963020341E-21</v>
       </c>
       <c r="K51">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>0.17558452849642561</v>
+        <v>8.0063290474831048E-21</v>
       </c>
       <c r="L51">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>0.51237032806483496</v>
+        <v>8.1403240788974539E-21</v>
       </c>
       <c r="M51">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>0.7230125830552373</v>
+        <v>7.9841586626297343E-21</v>
       </c>
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J52">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>0</v>
+        <v>2.1439550505299751E-22</v>
       </c>
       <c r="K52">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>0.13401486270481913</v>
+        <v>1.4936719936807401E-21</v>
       </c>
       <c r="L52">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>0.17884035482026428</v>
+        <v>9.171352998280304E-22</v>
       </c>
       <c r="M52">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>0.175701049670551</v>
+        <v>1.3906365890973766E-21</v>
       </c>
     </row>
     <row r="54" spans="9:16" x14ac:dyDescent="0.3">
@@ -2700,37 +2700,37 @@
       </c>
       <c r="N67">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.99702105566167154</v>
+        <v>0.99701744081805976</v>
       </c>
       <c r="O67">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.99669935097704254</v>
+        <v>0.99668839486113991</v>
       </c>
       <c r="P67">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.99639394892614208</v>
+        <v>0.99637639664369138</v>
       </c>
       <c r="Q67">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.99599840034997889</v>
+        <v>0.9959964281012641</v>
       </c>
     </row>
     <row r="68" spans="13:20" x14ac:dyDescent="0.3">
       <c r="N68">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>2.9226848015419596E-4</v>
+        <v>2.9248160947941071E-4</v>
       </c>
       <c r="O68">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>2.4222178765206777E-4</v>
+        <v>2.3703433280398436E-4</v>
       </c>
       <c r="P68">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.7894640127162944E-4</v>
+        <v>3.7484001071612518E-4</v>
       </c>
       <c r="Q68">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.3185777789962779E-3</v>
+        <v>1.3181894270174407E-3</v>
       </c>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.3">
@@ -2753,37 +2753,37 @@
       </c>
       <c r="O71">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>0.98987538545220344</v>
+        <v>0.98984251952862057</v>
       </c>
       <c r="P71">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>0.97850128268107284</v>
+        <v>0.97850451396645965</v>
       </c>
       <c r="Q71">
         <f>AVERAGE(N$7:N$12)</f>
-        <v>0.98093645308565935</v>
+        <v>0.9809374251401094</v>
       </c>
       <c r="R71">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>0.99030747923934903</v>
+        <v>0.99029926218611197</v>
       </c>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.3">
       <c r="O72">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.9728504145575284E-3</v>
+        <v>1.985716095001624E-3</v>
       </c>
       <c r="P72">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>5.8307426381074738E-3</v>
+        <v>5.8159864151796888E-3</v>
       </c>
       <c r="Q72">
         <f>STDEV(N$7:N$12)/SQRT(COUNT(N$7:N$12))</f>
-        <v>7.5020755124989248E-3</v>
+        <v>7.501297069558906E-3</v>
       </c>
       <c r="R72">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>4.4124004333715083E-3</v>
+        <v>4.4124643577439894E-3</v>
       </c>
     </row>
     <row r="74" spans="13:20" x14ac:dyDescent="0.3">
@@ -2806,37 +2806,37 @@
       </c>
       <c r="P75">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.99429875890623654</v>
+        <v>0.99427843844551456</v>
       </c>
       <c r="Q75">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.98857059588567886</v>
+        <v>0.98858362487389118</v>
       </c>
       <c r="R75">
         <f>AVERAGE(O$7:O$12)</f>
-        <v>0.9849347747510554</v>
+        <v>0.98493478569030024</v>
       </c>
       <c r="S75">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.97193163627497392</v>
+        <v>0.97215659933209042</v>
       </c>
     </row>
     <row r="76" spans="13:20" x14ac:dyDescent="0.3">
       <c r="P76">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>5.7524365744117845E-4</v>
+        <v>5.6062967240178658E-4</v>
       </c>
       <c r="Q76">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>1.958204940040001E-3</v>
+        <v>1.9525644297876668E-3</v>
       </c>
       <c r="R76">
         <f>STDEV(O$7:O$12)/SQRT(COUNT(O$7:O$12))</f>
-        <v>3.2905563344400456E-3</v>
+        <v>3.2908926535572358E-3</v>
       </c>
       <c r="S76">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>1.1732301578128258E-2</v>
+        <v>1.1685695066397734E-2</v>
       </c>
     </row>
     <row r="78" spans="13:20" x14ac:dyDescent="0.3">
@@ -2859,37 +2859,37 @@
       </c>
       <c r="Q79">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>9.2069350897591648E-2</v>
+        <v>9.2120888198731266E-2</v>
       </c>
       <c r="R79">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>9.1213434851740896E-2</v>
+        <v>9.1381820632342459E-2</v>
       </c>
       <c r="S79">
         <f>AVERAGE(P$7:P$12)</f>
-        <v>9.8037928057750912E-2</v>
+        <v>9.8269887127313951E-2</v>
       </c>
       <c r="T79">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>9.7766046467240034E-2</v>
+        <v>9.779400436927331E-2</v>
       </c>
     </row>
     <row r="80" spans="13:20" x14ac:dyDescent="0.3">
       <c r="Q80">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>4.5855741826150527E-3</v>
+        <v>4.5855605989020432E-3</v>
       </c>
       <c r="R80">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>2.8036965564261127E-3</v>
+        <v>2.7436517891456544E-3</v>
       </c>
       <c r="S80">
         <f>STDEV(P$7:P$12)/SQRT(COUNT(P$7:P$12))</f>
-        <v>3.5441826934060278E-3</v>
+        <v>3.4724520230266006E-3</v>
       </c>
       <c r="T80">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>1.1748790892004611E-2</v>
+        <v>1.174535191073761E-2</v>
       </c>
     </row>
     <row r="82" spans="17:22" x14ac:dyDescent="0.3">
@@ -2912,37 +2912,37 @@
       </c>
       <c r="R83">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>0.14155484547735941</v>
+        <v>0.14176402768753835</v>
       </c>
       <c r="S83">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>0.20843442179690183</v>
+        <v>0.20843111832862657</v>
       </c>
       <c r="T83">
         <f>AVERAGE(Q$7:Q$12)</f>
-        <v>0.17626898286825485</v>
+        <v>0.17626702878511899</v>
       </c>
       <c r="U83">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>0.13673812075105471</v>
+        <v>0.13681004495853127</v>
       </c>
     </row>
     <row r="84" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R84">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>1.3632142868593987E-2</v>
+        <v>1.3717564142814829E-2</v>
       </c>
       <c r="S84">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>2.4710004931111144E-2</v>
+        <v>2.4648984703540076E-2</v>
       </c>
       <c r="T84">
         <f>STDEV(Q$7:Q$12)/SQRT(COUNT(Q$7:Q$12))</f>
-        <v>4.0518251388397646E-2</v>
+        <v>4.05154958623586E-2</v>
       </c>
       <c r="U84">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>3.4397645657339444E-2</v>
+        <v>3.4392220417364137E-2</v>
       </c>
     </row>
     <row r="86" spans="17:22" x14ac:dyDescent="0.3">
@@ -2965,42 +2965,42 @@
       </c>
       <c r="S87">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>0.12815268780761366</v>
+        <v>0.12839759095407552</v>
       </c>
       <c r="T87">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>0.16024327200755464</v>
+        <v>0.16016457744112475</v>
       </c>
       <c r="U87">
         <f>AVERAGE(R$7:R$12)</f>
-        <v>0.17454419896569343</v>
+        <v>0.17455365488739058</v>
       </c>
       <c r="V87">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>0.22270114136752289</v>
+        <v>0.22179524663149711</v>
       </c>
     </row>
     <row r="88" spans="17:22" x14ac:dyDescent="0.3">
       <c r="S88">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>1.486529119625348E-2</v>
+        <v>1.4845694973020081E-2</v>
       </c>
       <c r="T88">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>6.1458131154929771E-3</v>
+        <v>6.0970203931052644E-3</v>
       </c>
       <c r="U88">
         <f>STDEV(R$7:R$12)/SQRT(COUNT(R$7:R$12))</f>
-        <v>1.8689920937743711E-2</v>
+        <v>1.8691409929535094E-2</v>
       </c>
       <c r="V88">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>5.2319464909209384E-2</v>
+        <v>5.2201534376536476E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I17:Q32">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3011,6 +3011,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lacex_summary_othersolutionbcrm.xlsx
+++ b/Lacex_summary_othersolutionbcrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51C50A2-EF7A-4516-ACC7-85F6EAE276FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F85172-52E3-458C-8FAC-9F386ED7806E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53B6AA18-EEB8-4C27-8B10-7FFFAF295B23}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>HK-2</t>
   </si>
@@ -458,41 +458,41 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>47.665047328253934</v>
+        <v>47.883756570449343</v>
       </c>
       <c r="B1">
-        <v>2.5060863274279973E-3</v>
+        <v>2.5050520710661172E-3</v>
       </c>
       <c r="C1">
-        <v>0.26786803250967689</v>
+        <v>0.26708765793384237</v>
       </c>
       <c r="D1">
-        <v>30.091935347161499</v>
+        <v>30.127327915612568</v>
       </c>
       <c r="E1">
-        <v>4.2292285895141498E-21</v>
+        <v>5.1947086672103612E-21</v>
       </c>
       <c r="F1">
-        <v>0.1199728088450701</v>
+        <v>0.11993291456858952</v>
       </c>
       <c r="G1">
-        <v>37.604102958375165</v>
+        <v>37.604248595824728</v>
       </c>
       <c r="H1">
-        <v>0.10092351810579282</v>
+        <v>0.10086485673126877</v>
       </c>
       <c r="I1">
         <v>1.0000000001355031E-20</v>
       </c>
       <c r="J1">
-        <v>3.5183343336118367</v>
+        <v>3.6670301481569809</v>
       </c>
       <c r="K1">
         <v>19</v>
@@ -501,54 +501,54 @@
         <v>500000000</v>
       </c>
       <c r="M1">
-        <v>0.99646258507587759</v>
+        <v>0.99647036231228414</v>
       </c>
       <c r="N1">
-        <v>0.99374464306743904</v>
+        <v>0.99374210218010584</v>
       </c>
       <c r="O1">
-        <v>0.99317449327937091</v>
+        <v>0.99317176508941396</v>
       </c>
       <c r="P1">
-        <v>0.10046455759605102</v>
+        <v>0.10035111123174388</v>
       </c>
       <c r="Q1">
-        <v>0.11480350082190742</v>
+        <v>0.11482598624089604</v>
       </c>
       <c r="R1">
-        <v>0.15480889576242526</v>
+        <v>0.15482124263304722</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>47.68965729107672</v>
+        <v>47.936498011744142</v>
       </c>
       <c r="B2">
-        <v>2.2274209468415651E-3</v>
+        <v>2.2259845624219622E-3</v>
       </c>
       <c r="C2">
-        <v>0.34577122303871211</v>
+        <v>0.34450228486844309</v>
       </c>
       <c r="D2">
-        <v>24.028678982924035</v>
+        <v>24.130734540922148</v>
       </c>
       <c r="E2">
-        <v>9.5000000014450517E-21</v>
+        <v>9.3641097648380672E-21</v>
       </c>
       <c r="F2">
-        <v>0.14528959675788361</v>
+        <v>0.1453092914710023</v>
       </c>
       <c r="G2">
-        <v>37.649719389661854</v>
+        <v>37.64972145655716</v>
       </c>
       <c r="H2">
-        <v>6.7521609695106719E-2</v>
+        <v>6.7539980999978891E-2</v>
       </c>
       <c r="I2">
-        <v>9.3568134861960386E-21</v>
+        <v>9.4657281255888985E-21</v>
       </c>
       <c r="J2">
-        <v>3.6114128380547785</v>
+        <v>3.6926317942752518</v>
       </c>
       <c r="K2">
         <v>19</v>
@@ -557,54 +557,54 @@
         <v>500000000</v>
       </c>
       <c r="M2">
-        <v>0.9974552987507872</v>
+        <v>0.99746402047929761</v>
       </c>
       <c r="N2">
-        <v>0.98725170847574573</v>
+        <v>0.98725302547474603</v>
       </c>
       <c r="O2">
-        <v>0.9946604237015787</v>
+        <v>0.99465869874401724</v>
       </c>
       <c r="P2">
-        <v>8.4652163486773874E-2</v>
+        <v>8.4535327731822513E-2</v>
       </c>
       <c r="Q2">
-        <v>0.15964454013403592</v>
+        <v>0.15963669667291125</v>
       </c>
       <c r="R2">
-        <v>0.10344390844114673</v>
+        <v>0.10346125449372395</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>47.942889655754662</v>
+        <v>48.040983583644262</v>
       </c>
       <c r="B3">
-        <v>2.2926260173828737E-3</v>
+        <v>2.291859595284231E-3</v>
       </c>
       <c r="C3">
-        <v>0.31181121908849657</v>
+        <v>0.31135570595452816</v>
       </c>
       <c r="D3">
-        <v>27.072789214551275</v>
+        <v>27.146129302540725</v>
       </c>
       <c r="E3">
         <v>9.5000000014450517E-21</v>
       </c>
       <c r="F3">
-        <v>0.10425763837252203</v>
+        <v>0.10429293388878043</v>
       </c>
       <c r="G3">
-        <v>37.651222000375121</v>
+        <v>37.651190884843892</v>
       </c>
       <c r="H3">
-        <v>5.9975913418495737E-2</v>
+        <v>6.0022317114913168E-2</v>
       </c>
       <c r="I3">
         <v>1.0000000001355031E-20</v>
       </c>
       <c r="J3">
-        <v>4.7730199554881851</v>
+        <v>4.9393492457437818</v>
       </c>
       <c r="K3">
         <v>19</v>
@@ -613,54 +613,54 @@
         <v>500000000</v>
       </c>
       <c r="M3">
-        <v>0.99713443862751416</v>
+        <v>0.9971383573934729</v>
       </c>
       <c r="N3">
-        <v>0.98853120704267705</v>
+        <v>0.98852945067598719</v>
       </c>
       <c r="O3">
-        <v>0.99500039835559384</v>
+        <v>0.99499808095240105</v>
       </c>
       <c r="P3">
-        <v>9.1245943513368885E-2</v>
+        <v>9.1195365245058405E-2</v>
       </c>
       <c r="Q3">
-        <v>0.15084404210667168</v>
+        <v>0.15085532660851392</v>
       </c>
       <c r="R3">
-        <v>0.12693996865865456</v>
+        <v>0.12696490436840555</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>48.91902351537702</v>
+        <v>48.994028291063842</v>
       </c>
       <c r="B4">
-        <v>0.14240815275134114</v>
+        <v>0.15710210463286442</v>
       </c>
       <c r="C4">
-        <v>0.23886403030857367</v>
+        <v>0.22381028981802734</v>
       </c>
       <c r="D4">
-        <v>9.9128931101830489</v>
+        <v>9.900990099014253</v>
       </c>
       <c r="E4">
-        <v>9.5001011555012064E-21</v>
+        <v>3.5212859309941864E-21</v>
       </c>
       <c r="F4">
-        <v>9.0535822701344113</v>
+        <v>9.9999999999999787</v>
       </c>
       <c r="G4">
-        <v>35.700000104662571</v>
+        <v>35.705272982548919</v>
       </c>
       <c r="H4">
-        <v>8.6305047248715212</v>
+        <v>9.5381077099876297</v>
       </c>
       <c r="I4">
-        <v>9.5000020808823979E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J4">
-        <v>3.7405390179784384</v>
+        <v>3.8493937393383995</v>
       </c>
       <c r="K4">
         <v>19</v>
@@ -669,54 +669,54 @@
         <v>500000000</v>
       </c>
       <c r="M4">
-        <v>0.99688766932674155</v>
+        <v>0.99688958234179792</v>
       </c>
       <c r="N4">
-        <v>0.96731497067981398</v>
+        <v>0.96735507907764839</v>
       </c>
       <c r="O4">
-        <v>0.98643646281744601</v>
+        <v>0.98647326767444765</v>
       </c>
       <c r="P4">
-        <v>8.8191414698650564E-2</v>
+        <v>8.8164127126615699E-2</v>
       </c>
       <c r="Q4">
-        <v>0.25703094110321423</v>
+        <v>0.25687866406039672</v>
       </c>
       <c r="R4">
-        <v>0.17010195239199535</v>
+        <v>0.16988860230127531</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>48.490353666604626</v>
+        <v>48.608670145485021</v>
       </c>
       <c r="B5">
-        <v>6.8450258155058749E-3</v>
+        <v>6.8427094730464334E-3</v>
       </c>
       <c r="C5">
-        <v>0.35102793589897163</v>
+        <v>0.35049899756838981</v>
       </c>
       <c r="D5">
-        <v>9.9009900990667905</v>
+        <v>9.9009900990143684</v>
       </c>
       <c r="E5">
         <v>9.5000000014450517E-21</v>
       </c>
       <c r="F5">
-        <v>0.62201962324364202</v>
+        <v>0.62175954019116486</v>
       </c>
       <c r="G5">
-        <v>37.580937713643564</v>
+        <v>37.59389577741463</v>
       </c>
       <c r="H5">
-        <v>0.41130137481440537</v>
+        <v>0.41110855784650396</v>
       </c>
       <c r="I5">
-        <v>9.5000000014450517E-21</v>
+        <v>4.1252761281842889E-21</v>
       </c>
       <c r="J5">
-        <v>4.8160681464098678</v>
+        <v>4.9395288423730381</v>
       </c>
       <c r="K5">
         <v>19</v>
@@ -725,22 +725,22 @@
         <v>500000000</v>
       </c>
       <c r="M5">
-        <v>0.99621623502459156</v>
+        <v>0.99621949230377227</v>
       </c>
       <c r="N5">
-        <v>0.98134743446521111</v>
+        <v>0.98135012662202248</v>
       </c>
       <c r="O5">
-        <v>0.98683235282895465</v>
+        <v>0.98683134559126218</v>
       </c>
       <c r="P5">
-        <v>9.6843398891881052E-2</v>
+        <v>9.6798800311219554E-2</v>
       </c>
       <c r="Q5">
-        <v>0.19129083405837224</v>
+        <v>0.19127718100544744</v>
       </c>
       <c r="R5">
-        <v>0.16131613565815811</v>
+        <v>0.16132241878067363</v>
       </c>
       <c r="T5" s="1">
         <f>1/51</f>
@@ -778,34 +778,34 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>48.442803660301884</v>
+        <v>48.397939872561572</v>
       </c>
       <c r="B6">
-        <v>1.4439543937075168E-2</v>
+        <v>1.4441051250145167E-2</v>
       </c>
       <c r="C6">
-        <v>0.33513294563923351</v>
+        <v>0.33532158753435537</v>
       </c>
       <c r="D6">
-        <v>9.9010966922563846</v>
+        <v>9.9009900999285509</v>
       </c>
       <c r="E6">
+        <v>5.8226830347976742E-21</v>
+      </c>
+      <c r="F6">
+        <v>0.48014383089710039</v>
+      </c>
+      <c r="G6">
+        <v>37.612081905367226</v>
+      </c>
+      <c r="H6">
+        <v>0.24019796159820667</v>
+      </c>
+      <c r="I6">
         <v>9.5000000014450517E-21</v>
       </c>
-      <c r="F6">
-        <v>0.48008118854422488</v>
-      </c>
-      <c r="G6">
-        <v>37.620257134093954</v>
-      </c>
-      <c r="H6">
-        <v>0.24016205612757893</v>
-      </c>
-      <c r="I6">
-        <v>5.0189850601218664E-21</v>
-      </c>
       <c r="J6">
-        <v>2.8009906026203648</v>
+        <v>2.8942547070821036</v>
       </c>
       <c r="K6">
         <v>19</v>
@@ -814,22 +814,22 @@
         <v>500000000</v>
       </c>
       <c r="M6">
-        <v>0.99696128023208674</v>
+        <v>0.99696008364635469</v>
       </c>
       <c r="N6">
-        <v>0.98685113675435354</v>
+        <v>0.98685036638735291</v>
       </c>
       <c r="O6">
-        <v>0.9924820589752732</v>
+        <v>0.99248217583842835</v>
       </c>
       <c r="P6">
-        <v>8.9110648306495774E-2</v>
+        <v>8.9129034776505855E-2</v>
       </c>
       <c r="Q6">
-        <v>0.17697157982429329</v>
+        <v>0.17697547678814918</v>
       </c>
       <c r="R6">
-        <v>0.14907564427322076</v>
+        <v>0.14907467582518719</v>
       </c>
       <c r="T6" s="1">
         <f>1/47</f>
@@ -864,34 +864,34 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>47.983173266905368</v>
+        <v>48.053000379173632</v>
       </c>
       <c r="B7">
-        <v>9.596229301603058E-3</v>
+        <v>9.5903151705865244E-3</v>
       </c>
       <c r="C7">
-        <v>0.24573169455568655</v>
+        <v>0.24553205937077111</v>
       </c>
       <c r="D7">
-        <v>25.481481140548624</v>
+        <v>25.639126202233633</v>
       </c>
       <c r="E7">
-        <v>5.5333888176577347E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F7">
-        <v>7.3793020371526755E-2</v>
+        <v>7.3935160337340267E-2</v>
       </c>
       <c r="G7">
-        <v>37.605104679071957</v>
+        <v>37.604780974947893</v>
       </c>
       <c r="H7">
-        <v>9.2049023847089559E-2</v>
+        <v>9.2375070809207802E-2</v>
       </c>
       <c r="I7">
-        <v>7.7902940717434487E-21</v>
+        <v>9.409745765790999E-21</v>
       </c>
       <c r="J7">
-        <v>2.7047004944585327</v>
+        <v>2.8353267446861383</v>
       </c>
       <c r="K7">
         <v>19</v>
@@ -900,54 +900,54 @@
         <v>500000000</v>
       </c>
       <c r="M7">
-        <v>0.99600921380006779</v>
+        <v>0.99601136952028391</v>
       </c>
       <c r="N7">
-        <v>0.99806237739276782</v>
+        <v>0.99806015220342459</v>
       </c>
       <c r="O7">
-        <v>0.99607433929226552</v>
+        <v>0.99606786150293813</v>
       </c>
       <c r="P7">
-        <v>0.10514496817240916</v>
+        <v>0.10511002887051982</v>
       </c>
       <c r="Q7">
-        <v>6.7231730782451399E-2</v>
+        <v>6.7257585557653793E-2</v>
       </c>
       <c r="R7">
-        <v>9.9474068195009993E-2</v>
+        <v>9.956137607571057E-2</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>48.011077738972219</v>
+        <v>48.113474618074662</v>
       </c>
       <c r="B8">
-        <v>1.328919693820328E-2</v>
+        <v>1.3285277921178364E-2</v>
       </c>
       <c r="C8">
-        <v>0.29605392150437776</v>
+        <v>0.29566099165404069</v>
       </c>
       <c r="D8">
-        <v>23.564423020463465</v>
+        <v>23.564371912618444</v>
       </c>
       <c r="E8">
-        <v>6.7396318658010479E-21</v>
+        <v>3.7733631137308716E-21</v>
       </c>
       <c r="F8">
-        <v>0.1699226652029634</v>
+        <v>0.1698476596956239</v>
       </c>
       <c r="G8">
-        <v>37.400505936446869</v>
+        <v>37.400712459236814</v>
       </c>
       <c r="H8">
-        <v>0.34701851195209921</v>
+        <v>0.34682923071628996</v>
       </c>
       <c r="I8">
-        <v>7.3871715363161034E-21</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J8">
-        <v>3.9130472719370726</v>
+        <v>4.0588112288013249</v>
       </c>
       <c r="K8">
         <v>19</v>
@@ -956,54 +956,54 @@
         <v>500000000</v>
       </c>
       <c r="M8">
-        <v>0.99635110549084294</v>
+        <v>0.99635447513348763</v>
       </c>
       <c r="N8">
-        <v>0.99700304742734724</v>
+        <v>0.99700286766378887</v>
       </c>
       <c r="O8">
-        <v>0.98928444248529646</v>
+        <v>0.98928926948233542</v>
       </c>
       <c r="P8">
-        <v>9.9028585968744379E-2</v>
+        <v>9.898073831966922E-2</v>
       </c>
       <c r="Q8">
-        <v>7.8575344428940277E-2</v>
+        <v>7.8577637025040198E-2</v>
       </c>
       <c r="R8">
-        <v>0.15303544026671645</v>
+        <v>0.15300302712913091</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>48.420279655564258</v>
+        <v>48.500422413160933</v>
       </c>
       <c r="B9">
-        <v>2.6473137499452477E-2</v>
+        <v>2.6472832472667143E-2</v>
       </c>
       <c r="C9">
-        <v>0.32510444989854898</v>
+        <v>0.32476214708853873</v>
       </c>
       <c r="D9">
-        <v>9.9009900990998094</v>
+        <v>9.9009900990158854</v>
       </c>
       <c r="E9">
-        <v>9.5000000014450517E-21</v>
+        <v>7.378555726882468E-21</v>
       </c>
       <c r="F9">
-        <v>3.4442724701304059</v>
+        <v>3.4442703136785457</v>
       </c>
       <c r="G9">
-        <v>35.700000000033974</v>
+        <v>35.700000000028304</v>
       </c>
       <c r="H9">
-        <v>9.999999999690349</v>
+        <v>9.9999999999999787</v>
       </c>
       <c r="I9">
-        <v>9.5000000014450517E-21</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J9">
-        <v>4.2882113234860197</v>
+        <v>4.5747910277060724</v>
       </c>
       <c r="K9">
         <v>19</v>
@@ -1012,54 +1012,54 @@
         <v>500000000</v>
       </c>
       <c r="M9">
-        <v>0.99476833213578231</v>
+        <v>0.99477050416379198</v>
       </c>
       <c r="N9">
-        <v>0.95877783576358655</v>
+        <v>0.95878151553360702</v>
       </c>
       <c r="O9">
-        <v>0.97616023426775422</v>
+        <v>0.97616057510439214</v>
       </c>
       <c r="P9">
-        <v>0.11067761101737522</v>
+        <v>0.11065048749998049</v>
       </c>
       <c r="Q9">
-        <v>0.29359842424680244</v>
+        <v>0.29358615671836835</v>
       </c>
       <c r="R9">
-        <v>0.22006225943942273</v>
+        <v>0.22006007502598543</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>48.42814030140066</v>
+        <v>48.801514837951956</v>
       </c>
       <c r="B10">
-        <v>6.5363302149284994E-3</v>
+        <v>6.5214346442215429E-3</v>
       </c>
       <c r="C10">
-        <v>0.21407578877253053</v>
+        <v>0.21302963871284183</v>
       </c>
       <c r="D10">
-        <v>9.900990099016413</v>
+        <v>9.900990099014253</v>
       </c>
       <c r="E10">
-        <v>9.5000002601914286E-21</v>
+        <v>7.8124751995675807E-21</v>
       </c>
       <c r="F10">
-        <v>0.71917372099567534</v>
+        <v>0.71727305681432241</v>
       </c>
       <c r="G10">
-        <v>37.502496746565853</v>
+        <v>37.478180704521691</v>
       </c>
       <c r="H10">
-        <v>0.76010752143394389</v>
+        <v>0.75786486113095664</v>
       </c>
       <c r="I10">
-        <v>4.1669216446937239E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J10">
-        <v>1.6193816111291905</v>
+        <v>1.7011335492393482</v>
       </c>
       <c r="K10">
         <v>19</v>
@@ -1068,54 +1068,54 @@
         <v>500000000</v>
       </c>
       <c r="M10">
-        <v>0.99728541814109017</v>
+        <v>0.99729792225504421</v>
       </c>
       <c r="N10">
-        <v>0.98831707151600656</v>
+        <v>0.98832430357866929</v>
       </c>
       <c r="O10">
-        <v>0.98574619148303289</v>
+        <v>0.98574866919047754</v>
       </c>
       <c r="P10">
-        <v>9.4326243959452397E-2</v>
+        <v>9.4112814262173758E-2</v>
       </c>
       <c r="Q10">
-        <v>0.15272115547464876</v>
+        <v>0.15267416977820733</v>
       </c>
       <c r="R10">
-        <v>0.16934547738618477</v>
+        <v>0.16933214743334757</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>47.927878943733575</v>
+        <v>47.936560102433077</v>
       </c>
       <c r="B11">
-        <v>1.0063987647282909E-2</v>
+        <v>1.0069486887189477E-2</v>
       </c>
       <c r="C11">
-        <v>0.34820548293423398</v>
+        <v>0.34815626468574024</v>
       </c>
       <c r="D11">
-        <v>27.7953560925957</v>
+        <v>27.491482451509079</v>
       </c>
       <c r="E11">
-        <v>9.5000000014450517E-21</v>
+        <v>5.6356022130339305E-21</v>
       </c>
       <c r="F11">
-        <v>0.10262497921144996</v>
+        <v>0.10233054246148256</v>
       </c>
       <c r="G11">
-        <v>37.583427531808773</v>
+        <v>37.58387155062178</v>
       </c>
       <c r="H11">
-        <v>0.16102040782665275</v>
+        <v>0.16034112892839475</v>
       </c>
       <c r="I11">
-        <v>1.0000000001355031E-20</v>
+        <v>9.4097429479798455E-21</v>
       </c>
       <c r="J11">
-        <v>4.481130698667652</v>
+        <v>4.7135499010320805</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -1124,54 +1124,54 @@
         <v>500000000</v>
       </c>
       <c r="M11">
-        <v>0.99673269289058364</v>
+        <v>0.99673300317562963</v>
       </c>
       <c r="N11">
-        <v>0.98625335697242611</v>
+        <v>0.98625414265678191</v>
       </c>
       <c r="O11">
-        <v>0.98733284523773768</v>
+        <v>0.98732962618568143</v>
       </c>
       <c r="P11">
-        <v>9.2943165172953202E-2</v>
+        <v>9.2939241342293227E-2</v>
       </c>
       <c r="Q11">
-        <v>0.17309779947223572</v>
+        <v>0.17309722708701938</v>
       </c>
       <c r="R11">
-        <v>0.18401771089169897</v>
+        <v>0.18402173736411218</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>50.883431754073243</v>
+        <v>50.748279725896388</v>
       </c>
       <c r="B12">
-        <v>0.18949002535066614</v>
+        <v>0.18949149955989511</v>
       </c>
       <c r="C12">
-        <v>0.17635805847908939</v>
+        <v>0.17699550492510113</v>
       </c>
       <c r="D12">
-        <v>9.9009903341155265</v>
+        <v>9.9009901042695887</v>
       </c>
       <c r="E12">
-        <v>9.5000000014450517E-21</v>
+        <v>3.8470918588465785E-21</v>
       </c>
       <c r="F12">
-        <v>4.9869999734931616</v>
+        <v>4.9870130327657343</v>
       </c>
       <c r="G12">
-        <v>35.700000053580808</v>
+        <v>35.700000079056508</v>
       </c>
       <c r="H12">
-        <v>9.9999994519119113</v>
+        <v>9.9999991912995583</v>
       </c>
       <c r="I12">
-        <v>9.9975572178313673E-21</v>
+        <v>9.4647290048534435E-21</v>
       </c>
       <c r="J12">
-        <v>7.3408895358905255</v>
+        <v>7.7486589205828764</v>
       </c>
       <c r="K12">
         <v>19</v>
@@ -1180,54 +1180,54 @@
         <v>500000000</v>
       </c>
       <c r="M12">
-        <v>0.99711161740378085</v>
+        <v>0.9971074986562618</v>
       </c>
       <c r="N12">
-        <v>0.95721086176852244</v>
+        <v>0.95720423666777499</v>
       </c>
       <c r="O12">
-        <v>0.97501066137571435</v>
+        <v>0.97501296743957178</v>
       </c>
       <c r="P12">
-        <v>8.7498748472949528E-2</v>
+        <v>8.7553088319185277E-2</v>
       </c>
       <c r="Q12">
-        <v>0.29237771830563541</v>
+        <v>0.29239930601243269</v>
       </c>
       <c r="R12">
-        <v>0.22138697314531056</v>
+        <v>0.22137728328217079</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>47.92194310092578</v>
+        <v>47.965006881207152</v>
       </c>
       <c r="B13">
-        <v>7.464907433830081E-3</v>
+        <v>7.4689852216251072E-3</v>
       </c>
       <c r="C13">
-        <v>0.33920486327410887</v>
+        <v>0.33899375071871835</v>
       </c>
       <c r="D13">
-        <v>24.368282740171008</v>
+        <v>24.73779266633019</v>
       </c>
       <c r="E13">
-        <v>9.5019044347325565E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F13">
-        <v>0.16334689724605228</v>
+        <v>0.16409776130617565</v>
       </c>
       <c r="G13">
-        <v>37.300783831223875</v>
+        <v>37.298679709577961</v>
       </c>
       <c r="H13">
-        <v>0.53604902341420302</v>
+        <v>0.53893383447783183</v>
       </c>
       <c r="I13">
-        <v>9.9998326587134848E-21</v>
+        <v>5.7964146608514111E-21</v>
       </c>
       <c r="J13">
-        <v>3.3265000203244384</v>
+        <v>3.4607174140989807</v>
       </c>
       <c r="K13">
         <v>19</v>
@@ -1236,54 +1236,54 @@
         <v>500000000</v>
       </c>
       <c r="M13">
-        <v>0.99728647944169224</v>
+        <v>0.99728793084360046</v>
       </c>
       <c r="N13">
-        <v>0.99743979310497055</v>
+        <v>0.99744347230822084</v>
       </c>
       <c r="O13">
-        <v>0.94380257139719248</v>
+        <v>0.94369085952663478</v>
       </c>
       <c r="P13">
-        <v>8.6780728586415903E-2</v>
+        <v>8.6760556840911898E-2</v>
       </c>
       <c r="Q13">
-        <v>7.787687766061259E-2</v>
+        <v>7.7832502688844965E-2</v>
       </c>
       <c r="R13">
-        <v>0.34253927326171629</v>
+        <v>0.34286490544743353</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>47.911499258769297</v>
+        <v>47.814318546466559</v>
       </c>
       <c r="B14">
-        <v>4.4599789056276855E-3</v>
+        <v>4.4588382125751707E-3</v>
       </c>
       <c r="C14">
-        <v>0.28620130228558183</v>
+        <v>0.28659373037709196</v>
       </c>
       <c r="D14">
-        <v>27.968091490427902</v>
+        <v>28.136796517526292</v>
       </c>
       <c r="E14">
-        <v>5.8857080544565737E-21</v>
+        <v>9.5136863374092964E-21</v>
       </c>
       <c r="F14">
-        <v>3.7131106284392805E-2</v>
+        <v>3.7313289653377081E-2</v>
       </c>
       <c r="G14">
-        <v>37.638648843939215</v>
+        <v>37.638002262289028</v>
       </c>
       <c r="H14">
-        <v>6.93880438372E-2</v>
+        <v>7.0110251670814611E-2</v>
       </c>
       <c r="I14">
-        <v>8.4576120029207767E-21</v>
+        <v>9.9960872828195711E-21</v>
       </c>
       <c r="J14">
-        <v>2.5658017063085969</v>
+        <v>2.6726930549194257</v>
       </c>
       <c r="K14">
         <v>19</v>
@@ -1292,54 +1292,54 @@
         <v>500000000</v>
       </c>
       <c r="M14">
-        <v>0.9971968237127149</v>
+        <v>0.99719325533331893</v>
       </c>
       <c r="N14">
-        <v>0.99715958477291577</v>
+        <v>0.99715601340207405</v>
       </c>
       <c r="O14">
-        <v>0.99502611367769767</v>
+        <v>0.99494618515288202</v>
       </c>
       <c r="P14">
-        <v>9.1431257017684592E-2</v>
+        <v>9.1482603872579157E-2</v>
       </c>
       <c r="Q14">
-        <v>8.7085705075993558E-2</v>
+        <v>8.7119293169015871E-2</v>
       </c>
       <c r="R14">
-        <v>0.1105401970155631</v>
+        <v>0.11134676350417883</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>48.096610984098398</v>
+        <v>47.498843584804519</v>
       </c>
       <c r="B15">
-        <v>6.0836280858658541E-3</v>
+        <v>6.0902257625915024E-3</v>
       </c>
       <c r="C15">
-        <v>0.41767200525365283</v>
+        <v>0.42131793809050694</v>
       </c>
       <c r="D15">
-        <v>18.5251778768978</v>
+        <v>18.667314175341531</v>
       </c>
       <c r="E15">
-        <v>9.5000021566130448E-21</v>
+        <v>9.5038933455566795E-21</v>
       </c>
       <c r="F15">
-        <v>9.4942417452223996E-2</v>
+        <v>9.5586186732767545E-2</v>
       </c>
       <c r="G15">
-        <v>37.650571380034272</v>
+        <v>37.640014179501513</v>
       </c>
       <c r="H15">
-        <v>9.969724244697023E-2</v>
+        <v>0.10090398121476279</v>
       </c>
       <c r="I15">
-        <v>3.9269926138194111E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J15">
-        <v>4.1031742274493235</v>
+        <v>4.2080055462716635</v>
       </c>
       <c r="K15">
         <v>19</v>
@@ -1348,54 +1348,54 @@
         <v>500000000</v>
       </c>
       <c r="M15">
-        <v>0.99745722894995803</v>
+        <v>0.99744000555059842</v>
       </c>
       <c r="N15">
-        <v>0.98763328714362708</v>
+        <v>0.98762959289041452</v>
       </c>
       <c r="O15">
-        <v>0.98707793858448944</v>
+        <v>0.98691445609807027</v>
       </c>
       <c r="P15">
-        <v>8.0571597078718415E-2</v>
+        <v>8.0806029595537537E-2</v>
       </c>
       <c r="Q15">
-        <v>0.15689669883959578</v>
+        <v>0.15692014248597874</v>
       </c>
       <c r="R15">
-        <v>0.16367390958088587</v>
+        <v>0.16469281946593772</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>47.989748544625023</v>
+        <v>47.805142435427314</v>
       </c>
       <c r="B16">
-        <v>1.2092645161224953E-2</v>
+        <v>1.2129032784850261E-2</v>
       </c>
       <c r="C16">
-        <v>0.34945999322974131</v>
+        <v>0.3501435254330989</v>
       </c>
       <c r="D16">
-        <v>17.048568247460995</v>
+        <v>17.179219200674272</v>
       </c>
       <c r="E16">
-        <v>9.5000000014450517E-21</v>
+        <v>3.6110569609447987E-21</v>
       </c>
       <c r="F16">
-        <v>1.5258363793594234</v>
+        <v>1.5311137138337843</v>
       </c>
       <c r="G16">
-        <v>36.130109455643627</v>
+        <v>36.124847449149499</v>
       </c>
       <c r="H16">
-        <v>7.7560144029992175</v>
+        <v>7.7831227035562129</v>
       </c>
       <c r="I16">
-        <v>9.5521973750652646E-21</v>
+        <v>9.3932363648596761E-21</v>
       </c>
       <c r="J16">
-        <v>4.8975994027500533</v>
+        <v>5.287721053791727</v>
       </c>
       <c r="K16">
         <v>19</v>
@@ -1404,22 +1404,22 @@
         <v>500000000</v>
       </c>
       <c r="M16">
-        <v>0.99204518030069133</v>
+        <v>0.99204055559288729</v>
       </c>
       <c r="N16">
-        <v>0.97896438372293493</v>
+        <v>0.97896522873133685</v>
       </c>
       <c r="O16">
-        <v>0.96271977366898231</v>
+        <v>0.96272071033032092</v>
       </c>
       <c r="P16">
-        <v>0.13239243479427432</v>
+        <v>0.1324465330917266</v>
       </c>
       <c r="Q16">
-        <v>0.22538089825792318</v>
+        <v>0.22537946839950984</v>
       </c>
       <c r="R16">
-        <v>0.27042760666782317</v>
+        <v>0.27042478498885109</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -1516,19 +1516,19 @@
       </c>
       <c r="B19">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>47.765864758361772</v>
+        <v>47.953746055279247</v>
       </c>
       <c r="C19">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>48.61739361409451</v>
+        <v>48.666879436370145</v>
       </c>
       <c r="D19">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>48.608996943441554</v>
+        <v>48.692208679448441</v>
       </c>
       <c r="E19">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>47.979950472104626</v>
+        <v>47.770827861976386</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1570,19 +1570,19 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>8.8797096968795813E-2</v>
+        <v>4.6199583958770919E-2</v>
       </c>
       <c r="C20">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>0.15143832494409543</v>
+        <v>0.17451990509886051</v>
       </c>
       <c r="D20">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>0.4638412597085339</v>
+        <v>0.43168982279504808</v>
       </c>
       <c r="E20">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>4.257943654896007E-2</v>
+        <v>9.7787979887896795E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -1604,9 +1604,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>Upper</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
@@ -1728,26 +1728,26 @@
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>STDEV(B5:B16)/SQRT(12)</f>
-        <v>1.4997116820455948E-2</v>
+        <v>1.4997086979949316E-2</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>2.3420444305508122E-3</v>
+        <v>2.3409654095907701E-3</v>
       </c>
       <c r="D23">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>5.4564240834640725E-2</v>
+        <v>5.9461955118685343E-2</v>
       </c>
       <c r="E23">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>4.2574817825356055E-2</v>
+        <v>4.2571807775956365E-2</v>
       </c>
       <c r="F23">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>7.5252898966371431E-3</v>
+        <v>7.5367704954105094E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -1789,19 +1789,19 @@
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>8.4153101060652284E-5</v>
+        <v>8.4218375556733687E-5</v>
       </c>
       <c r="D24">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>4.3976637062560373E-2</v>
+        <v>4.8869325066288889E-2</v>
       </c>
       <c r="E24">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>2.9520785824794723E-2</v>
+        <v>2.9521790139494151E-2</v>
       </c>
       <c r="F24">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>1.6416176067884074E-3</v>
+        <v>1.6497380241551239E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -1934,19 +1934,19 @@
       </c>
       <c r="D27">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>0.30848349154562849</v>
+        <v>0.30764854958560456</v>
       </c>
       <c r="E27">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>0.30834163728225961</v>
+        <v>0.30321029164025753</v>
       </c>
       <c r="F27">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>0.2675882326907445</v>
+        <v>0.26735610107283891</v>
       </c>
       <c r="G27">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>0.34813454101077124</v>
+        <v>0.34926223615485402</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -1988,19 +1988,19 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.2550181829278024E-2</v>
+        <v>2.2424416544721611E-2</v>
       </c>
       <c r="E28">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>3.5040529305038398E-2</v>
+        <v>3.9941034291661015E-2</v>
       </c>
       <c r="F28">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>2.7253003698913397E-2</v>
+        <v>2.7213953550083173E-2</v>
       </c>
       <c r="G28">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>2.7007222738227404E-2</v>
+        <v>2.7727219270663059E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2130,26 +2130,26 @@
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>STDEV(D5:D16)/SQRT(12)</f>
-        <v>2.2219599835061885</v>
+        <v>2.2302177539526671</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>27.064467848212271</v>
+        <v>27.134730586358483</v>
       </c>
       <c r="F31">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>9.904993300502074</v>
+        <v>9.900990099319058</v>
       </c>
       <c r="G31">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>17.757371797639923</v>
+        <v>17.732991811443483</v>
       </c>
       <c r="H31">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>21.977530088739424</v>
+        <v>22.180280639968071</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2191,23 +2191,23 @@
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>MIN(D5:D14)</f>
-        <v>9.900990099016413</v>
+        <v>9.900990099014253</v>
       </c>
       <c r="E32">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>1.750316292223574</v>
+        <v>1.7310767817934607</v>
       </c>
       <c r="F32">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>3.9500246950167905E-3</v>
+        <v>3.047467481795404E-10</v>
       </c>
       <c r="G32">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>3.5558076168409176</v>
+        <v>3.5391187549539285</v>
       </c>
       <c r="H32">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>2.5464996363491155</v>
+        <v>2.5718426932482363</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -2249,7 +2249,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>MAX(G5:G14)</f>
-        <v>37.638648843939215</v>
+        <v>37.638002262289028</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2272,37 +2272,37 @@
       </c>
       <c r="F35">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>7.7430761974680849E-21</v>
+        <v>8.0196061444978262E-21</v>
       </c>
       <c r="G35">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>9.5000337194637694E-21</v>
+        <v>6.2813229890789705E-21</v>
       </c>
       <c r="H35">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>8.3788368246642277E-21</v>
+        <v>6.3245146855844133E-21</v>
       </c>
       <c r="I35">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>8.5969036618118067E-21</v>
+        <v>8.0321591613389566E-21</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F36">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.7569238039769676E-21</v>
+        <v>1.4129933777846814E-21</v>
       </c>
       <c r="G36">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>3.3718018718226638E-26</v>
+        <v>1.7410742315975648E-21</v>
       </c>
       <c r="H36">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>7.2598428159774523E-22</v>
+        <v>9.4037819695071591E-22</v>
       </c>
       <c r="I36">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>9.0373198047045866E-22</v>
+        <v>1.4737035455116529E-21</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2322,44 +2322,44 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E39">
         <f>STDEV(F5:F16)/SQRT(12)</f>
-        <v>0.45579503005764688</v>
+        <v>0.45582970645233634</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>0.12317334799182526</v>
+        <v>0.12317837997612407</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>3.3852276939740924</v>
+        <v>3.7006344570294147</v>
       </c>
       <c r="I39">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>1.5827978049008637</v>
+        <v>1.5824449609588414</v>
       </c>
       <c r="J39">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>0.45531420008552315</v>
+        <v>0.45702773788152612</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G40">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.1952517034177872E-2</v>
+        <v>1.1951083376439161E-2</v>
       </c>
       <c r="H40">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>2.8344734567240444</v>
+        <v>3.1499480649291844</v>
       </c>
       <c r="I40">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>0.86146677409828565</v>
+        <v>0.86154457167091925</v>
       </c>
       <c r="J40">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>0.35777175730532479</v>
+        <v>0.35896481580860057</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2382,37 +2382,37 @@
       </c>
       <c r="H43">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>37.635014782804042</v>
+        <v>37.635053645741927</v>
       </c>
       <c r="I43">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>36.967064984133366</v>
+        <v>36.970416888443594</v>
       </c>
       <c r="J43">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>36.915255824584705</v>
+        <v>36.911257628068832</v>
       </c>
       <c r="K43">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>37.180028377710251</v>
+        <v>37.175385900129498</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H44">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>1.5461997788992285E-2</v>
+        <v>1.5408364937843274E-2</v>
       </c>
       <c r="I44">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.63363411124438584</v>
+        <v>0.63259373765982907</v>
       </c>
       <c r="J44">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>0.38541569557843924</v>
+        <v>0.3842152963887373</v>
       </c>
       <c r="K44">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.35924168646690108</v>
+        <v>0.35924988250585954</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2435,37 +2435,37 @@
       </c>
       <c r="I47">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>7.6140347073131762E-2</v>
+        <v>7.6142384948720276E-2</v>
       </c>
       <c r="J47">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>3.0939893852711684</v>
+        <v>3.3964714098107804</v>
       </c>
       <c r="K47">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>3.560032486110341</v>
+        <v>3.5595682471473977</v>
       </c>
       <c r="L47">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>2.1152871781743978</v>
+        <v>2.1232676927299057</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I48">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.2581581218860029E-2</v>
+        <v>1.2550289184601635E-2</v>
       </c>
       <c r="J48">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>2.7686984755670943</v>
+        <v>3.0712144688334058</v>
       </c>
       <c r="K48">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>2.0387053662016772</v>
+        <v>2.0388372444749057</v>
       </c>
       <c r="L48">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.8832618606913929</v>
+        <v>1.8896534730255257</v>
       </c>
     </row>
     <row r="50" spans="9:16" x14ac:dyDescent="0.3">
@@ -2488,37 +2488,37 @@
       </c>
       <c r="J51">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>9.7856044963020341E-21</v>
+        <v>9.8219093760996536E-21</v>
       </c>
       <c r="K51">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>8.0063290474831048E-21</v>
+        <v>7.7084253770247974E-21</v>
       </c>
       <c r="L51">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>8.1403240788974539E-21</v>
+        <v>9.630702953796567E-21</v>
       </c>
       <c r="M51">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>7.9841586626297343E-21</v>
+        <v>8.6714345774939275E-21</v>
       </c>
     </row>
     <row r="52" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J52">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>2.1439550505299751E-22</v>
+        <v>1.7809062525537753E-22</v>
       </c>
       <c r="K52">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>1.4936719936807401E-21</v>
+        <v>1.7915746244202543E-21</v>
       </c>
       <c r="L52">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>9.171352998280304E-22</v>
+        <v>1.1762038304843645E-22</v>
       </c>
       <c r="M52">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>1.3906365890973766E-21</v>
+        <v>9.6729704128003785E-22</v>
       </c>
     </row>
     <row r="54" spans="9:16" x14ac:dyDescent="0.3">
@@ -2541,37 +2541,37 @@
       </c>
       <c r="K55">
         <f>AVERAGE(J$1:J$3)</f>
-        <v>3.9675890423849332</v>
+        <v>4.0996703960586709</v>
       </c>
       <c r="L55">
         <f>AVERAGE(J$4:J$6)</f>
-        <v>3.7858659223362241</v>
+        <v>3.8943924295978469</v>
       </c>
       <c r="M55">
         <f>AVERAGE(J$7:J$12)</f>
-        <v>4.0578934892614988</v>
+        <v>4.2720452286746404</v>
       </c>
       <c r="N55">
         <f>AVERAGE(J$13:J$16)</f>
-        <v>3.723268839208103</v>
+        <v>3.9072842672704491</v>
       </c>
     </row>
     <row r="56" spans="9:16" x14ac:dyDescent="0.3">
       <c r="K56">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
-        <v>0.4036108351841291</v>
+        <v>0.41990446890825722</v>
       </c>
       <c r="L56">
         <f>STDEV(J$4:J$6)/SQRT(COUNT(J$4:J$6))</f>
-        <v>0.5821441038852766</v>
+        <v>0.59084832619895666</v>
       </c>
       <c r="M56">
         <f>STDEV(J$7:J$12)/SQRT(COUNT(J$7:J$12))</f>
-        <v>0.79180576258783286</v>
+        <v>0.83850342399820488</v>
       </c>
       <c r="N56">
         <f>STDEV(J$13:J$16)/SQRT(COUNT(J$13:J$16))</f>
-        <v>0.50170841763123086</v>
+        <v>0.55675222086004894</v>
       </c>
     </row>
     <row r="58" spans="9:16" x14ac:dyDescent="0.3">
@@ -2700,37 +2700,37 @@
       </c>
       <c r="N67">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.99701744081805976</v>
+        <v>0.99702424672835155</v>
       </c>
       <c r="O67">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.99668839486113991</v>
+        <v>0.99668971943064166</v>
       </c>
       <c r="P67">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.99637639664369138</v>
+        <v>0.99637912881741653</v>
       </c>
       <c r="Q67">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.9959964281012641</v>
+        <v>0.99599043683010136</v>
       </c>
     </row>
     <row r="68" spans="13:20" x14ac:dyDescent="0.3">
       <c r="N68">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>2.9248160947941071E-4</v>
+        <v>2.9246371349791301E-4</v>
       </c>
       <c r="O68">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>2.3703433280398436E-4</v>
+        <v>2.3599277645647624E-4</v>
       </c>
       <c r="P68">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.7484001071612518E-4</v>
+        <v>3.7520923254345107E-4</v>
       </c>
       <c r="Q68">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.3181894270174407E-3</v>
+        <v>1.317607501315921E-3</v>
       </c>
     </row>
     <row r="70" spans="13:20" x14ac:dyDescent="0.3">
@@ -2753,37 +2753,37 @@
       </c>
       <c r="O71">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>0.98984251952862057</v>
+        <v>0.98984152611027965</v>
       </c>
       <c r="P71">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>0.97850451396645965</v>
+        <v>0.97851852402900796</v>
       </c>
       <c r="Q71">
         <f>AVERAGE(N$7:N$12)</f>
-        <v>0.9809374251401094</v>
+        <v>0.9809378697173412</v>
       </c>
       <c r="R71">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>0.99029926218611197</v>
+        <v>0.99029857683301148</v>
       </c>
     </row>
     <row r="72" spans="13:20" x14ac:dyDescent="0.3">
       <c r="O72">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.985716095001624E-3</v>
+        <v>1.9847909697636684E-3</v>
       </c>
       <c r="P72">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>5.8159864151796888E-3</v>
+        <v>5.8031611142995883E-3</v>
       </c>
       <c r="Q72">
         <f>STDEV(N$7:N$12)/SQRT(COUNT(N$7:N$12))</f>
-        <v>7.501297069558906E-3</v>
+        <v>7.5017070238569622E-3</v>
       </c>
       <c r="R72">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>4.4124643577439894E-3</v>
+        <v>4.4125032779020511E-3</v>
       </c>
     </row>
     <row r="74" spans="13:20" x14ac:dyDescent="0.3">
@@ -2806,37 +2806,37 @@
       </c>
       <c r="P75">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.99427843844551456</v>
+        <v>0.99427618159527731</v>
       </c>
       <c r="Q75">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.98858362487389118</v>
+        <v>0.98859559636804606</v>
       </c>
       <c r="R75">
         <f>AVERAGE(O$7:O$12)</f>
-        <v>0.98493478569030024</v>
+        <v>0.98493482815089928</v>
       </c>
       <c r="S75">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.97215659933209042</v>
+        <v>0.97206805277697694</v>
       </c>
     </row>
     <row r="76" spans="13:20" x14ac:dyDescent="0.3">
       <c r="P76">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>5.6062967240178658E-4</v>
+        <v>5.6083180326475985E-4</v>
       </c>
       <c r="Q76">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>1.9525644297876668E-3</v>
+        <v>1.9460369929102384E-3</v>
       </c>
       <c r="R76">
         <f>STDEV(O$7:O$12)/SQRT(COUNT(O$7:O$12))</f>
-        <v>3.2908926535572358E-3</v>
+        <v>3.2900548237111563E-3</v>
       </c>
       <c r="S76">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>1.1685695066397734E-2</v>
+        <v>1.1677837057735797E-2</v>
       </c>
     </row>
     <row r="78" spans="13:20" x14ac:dyDescent="0.3">
@@ -2859,37 +2859,37 @@
       </c>
       <c r="Q79">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>9.2120888198731266E-2</v>
+        <v>9.202726806954159E-2</v>
       </c>
       <c r="R79">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>9.1381820632342459E-2</v>
+        <v>9.136398740478037E-2</v>
       </c>
       <c r="S79">
         <f>AVERAGE(P$7:P$12)</f>
-        <v>9.8269887127313951E-2</v>
+        <v>9.8224399768970308E-2</v>
       </c>
       <c r="T79">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>9.779400436927331E-2</v>
+        <v>9.7873930850188806E-2</v>
       </c>
     </row>
     <row r="80" spans="13:20" x14ac:dyDescent="0.3">
       <c r="Q80">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>4.5855605989020432E-3</v>
+        <v>4.5845319158060761E-3</v>
       </c>
       <c r="R80">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>2.7436517891456544E-3</v>
+        <v>2.7316451202649898E-3</v>
       </c>
       <c r="S80">
         <f>STDEV(P$7:P$12)/SQRT(COUNT(P$7:P$12))</f>
-        <v>3.4724520230266006E-3</v>
+        <v>3.4694212555757727E-3</v>
       </c>
       <c r="T80">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>1.174535191073761E-2</v>
+        <v>1.1729358540982048E-2</v>
       </c>
     </row>
     <row r="82" spans="17:22" x14ac:dyDescent="0.3">
@@ -2912,37 +2912,37 @@
       </c>
       <c r="R83">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>0.14176402768753835</v>
+        <v>0.14177266984077372</v>
       </c>
       <c r="S83">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>0.20843111832862657</v>
+        <v>0.20837710728466444</v>
       </c>
       <c r="T83">
         <f>AVERAGE(Q$7:Q$12)</f>
-        <v>0.17626702878511899</v>
+        <v>0.17626534702978694</v>
       </c>
       <c r="U83">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>0.13681004495853127</v>
+        <v>0.13681285168583734</v>
       </c>
     </row>
     <row r="84" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R84">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>1.3717564142814829E-2</v>
+        <v>1.3709740245848465E-2</v>
       </c>
       <c r="S84">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>2.4648984703540076E-2</v>
+        <v>2.4599698122348076E-2</v>
       </c>
       <c r="T84">
         <f>STDEV(Q$7:Q$12)/SQRT(COUNT(Q$7:Q$12))</f>
-        <v>4.05154958623586E-2</v>
+        <v>4.0514783388367996E-2</v>
       </c>
       <c r="U84">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>3.4392220417364137E-2</v>
+        <v>3.4395348601833513E-2</v>
       </c>
     </row>
     <row r="86" spans="17:22" x14ac:dyDescent="0.3">
@@ -2965,37 +2965,37 @@
       </c>
       <c r="S87">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>0.12839759095407552</v>
+        <v>0.12841580049839227</v>
       </c>
       <c r="T87">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>0.16016457744112475</v>
+        <v>0.16009523230237871</v>
       </c>
       <c r="U87">
         <f>AVERAGE(R$7:R$12)</f>
-        <v>0.17455365488739058</v>
+        <v>0.17455927438507624</v>
       </c>
       <c r="V87">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>0.22179524663149711</v>
+        <v>0.22233231835160028</v>
       </c>
     </row>
     <row r="88" spans="17:22" x14ac:dyDescent="0.3">
       <c r="S88">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>1.4845694973020081E-2</v>
+        <v>1.4844088835884098E-2</v>
       </c>
       <c r="T88">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>6.0970203931052644E-3</v>
+        <v>6.0397122952279489E-3</v>
       </c>
       <c r="U88">
         <f>STDEV(R$7:R$12)/SQRT(COUNT(R$7:R$12))</f>
-        <v>1.8691409929535094E-2</v>
+        <v>1.8680173468531389E-2</v>
       </c>
       <c r="V88">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>5.2201534376536476E-2</v>
+        <v>5.2026511763915442E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lacex_summary_othersolutionbcrm.xlsx
+++ b/Lacex_summary_othersolutionbcrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F85172-52E3-458C-8FAC-9F386ED7806E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B45CD9-8033-4690-9CB3-94E2094D6FF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53B6AA18-EEB8-4C27-8B10-7FFFAF295B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53B6AA18-EEB8-4C27-8B10-7FFFAF295B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,6 +156,873 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>HK-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UMRC6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UOK262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>UOK + DIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3513378530276648E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0331166243549099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7670335688023222E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5327613374063743E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3071-4CEC-9916-937979635464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="470236936"/>
+        <c:axId val="470237264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="470236936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470237264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470237264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470236936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7157158A-6344-4229-90EB-CB814793C97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,38 +1325,38 @@
   <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C22" sqref="C22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>47.883756570449343</v>
+        <v>47.723012646534272</v>
       </c>
       <c r="B1">
-        <v>2.5050520710661172E-3</v>
+        <v>2.5146863602921836E-3</v>
       </c>
       <c r="C1">
-        <v>0.26708765793384237</v>
+        <v>0.26765161144852073</v>
       </c>
       <c r="D1">
-        <v>30.127327915612568</v>
+        <v>29.029738824317327</v>
       </c>
       <c r="E1">
-        <v>5.1947086672103612E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F1">
-        <v>0.11993291456858952</v>
+        <v>0.11946686596404146</v>
       </c>
       <c r="G1">
-        <v>37.604248595824728</v>
+        <v>37.60511821127583</v>
       </c>
       <c r="H1">
-        <v>0.10086485673126877</v>
+        <v>0.10016941639683012</v>
       </c>
       <c r="I1">
-        <v>1.0000000001355031E-20</v>
+        <v>9.5184591383679444E-21</v>
       </c>
       <c r="J1">
         <v>3.6670301481569809</v>
@@ -501,51 +1368,51 @@
         <v>500000000</v>
       </c>
       <c r="M1">
-        <v>0.99647036231228414</v>
+        <v>0.9964646536972861</v>
       </c>
       <c r="N1">
-        <v>0.99374210218010584</v>
+        <v>0.99370479212570806</v>
       </c>
       <c r="O1">
-        <v>0.99317176508941396</v>
+        <v>0.99316150452546437</v>
       </c>
       <c r="P1">
-        <v>0.10035111123174388</v>
+        <v>0.10043439974146387</v>
       </c>
       <c r="Q1">
-        <v>0.11482598624089604</v>
+        <v>0.11517105548342596</v>
       </c>
       <c r="R1">
-        <v>0.15482124263304722</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.15486132427509716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>47.936498011744142</v>
+        <v>48.093767364601753</v>
       </c>
       <c r="B2">
-        <v>2.2259845624219622E-3</v>
+        <v>2.2412249196564582E-3</v>
       </c>
       <c r="C2">
-        <v>0.34450228486844309</v>
+        <v>0.34368631972521463</v>
       </c>
       <c r="D2">
-        <v>24.130734540922148</v>
+        <v>22.50395800699372</v>
       </c>
       <c r="E2">
-        <v>9.3641097648380672E-21</v>
+        <v>8.749292871397808E-21</v>
       </c>
       <c r="F2">
-        <v>0.1453092914710023</v>
+        <v>0.14389042442600039</v>
       </c>
       <c r="G2">
-        <v>37.64972145655716</v>
+        <v>37.650762375257564</v>
       </c>
       <c r="H2">
-        <v>6.7539980999978891E-2</v>
+        <v>6.6152982762165316E-2</v>
       </c>
       <c r="I2">
-        <v>9.4657281255888985E-21</v>
+        <v>8.4721475034732811E-21</v>
       </c>
       <c r="J2">
         <v>3.6926317942752518</v>
@@ -557,51 +1424,51 @@
         <v>500000000</v>
       </c>
       <c r="M2">
-        <v>0.99746402047929761</v>
+        <v>0.99746952504689057</v>
       </c>
       <c r="N2">
-        <v>0.98725302547474603</v>
+        <v>0.98737319026882897</v>
       </c>
       <c r="O2">
-        <v>0.99465869874401724</v>
+        <v>0.99469665358716219</v>
       </c>
       <c r="P2">
-        <v>8.4535327731822513E-2</v>
+        <v>8.4461371471419411E-2</v>
       </c>
       <c r="Q2">
-        <v>0.15963669667291125</v>
+        <v>0.15889283621825528</v>
       </c>
       <c r="R2">
-        <v>0.10346125449372395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.10306764591623495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>48.040983583644262</v>
+        <v>48.13071411363287</v>
       </c>
       <c r="B3">
-        <v>2.291859595284231E-3</v>
+        <v>2.298102279134353E-3</v>
       </c>
       <c r="C3">
-        <v>0.31135570595452816</v>
+        <v>0.31093418437808779</v>
       </c>
       <c r="D3">
-        <v>27.146129302540725</v>
+        <v>26.342139164136888</v>
       </c>
       <c r="E3">
-        <v>9.5000000014450517E-21</v>
+        <v>4.1968182960211297E-21</v>
       </c>
       <c r="F3">
-        <v>0.10429293388878043</v>
+        <v>0.10367967442303036</v>
       </c>
       <c r="G3">
-        <v>37.651190884843892</v>
+        <v>37.651846641195007</v>
       </c>
       <c r="H3">
-        <v>6.0022317114913168E-2</v>
+        <v>5.9222165579414197E-2</v>
       </c>
       <c r="I3">
-        <v>1.0000000001355031E-20</v>
+        <v>8.6996495895749856E-21</v>
       </c>
       <c r="J3">
         <v>4.9393492457437818</v>
@@ -613,51 +1480,51 @@
         <v>500000000</v>
       </c>
       <c r="M3">
-        <v>0.9971383573934729</v>
+        <v>0.99714192566822646</v>
       </c>
       <c r="N3">
-        <v>0.98852945067598719</v>
+        <v>0.98857269368981893</v>
       </c>
       <c r="O3">
-        <v>0.99499808095240105</v>
+        <v>0.99502754921517911</v>
       </c>
       <c r="P3">
-        <v>9.1195365245058405E-2</v>
+        <v>9.1149242076899201E-2</v>
       </c>
       <c r="Q3">
-        <v>0.15085532660851392</v>
+        <v>0.15057590018508599</v>
       </c>
       <c r="R3">
-        <v>0.12696490436840555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.12662015036451182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>48.994028291063842</v>
+        <v>48.528601177088007</v>
       </c>
       <c r="B4">
-        <v>0.15710210463286442</v>
+        <v>9.9999987283480932E-2</v>
       </c>
       <c r="C4">
-        <v>0.22381028981802734</v>
+        <v>0.28313974698963534</v>
       </c>
       <c r="D4">
-        <v>9.900990099014253</v>
+        <v>12.452104912630254</v>
       </c>
       <c r="E4">
-        <v>3.5212859309941864E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F4">
-        <v>9.9999999999999787</v>
+        <v>6.3444039108911117</v>
       </c>
       <c r="G4">
-        <v>35.705272982548919</v>
+        <v>35.801016134160676</v>
       </c>
       <c r="H4">
-        <v>9.5381077099876297</v>
+        <v>6.0269455555990907</v>
       </c>
       <c r="I4">
-        <v>9.5000000014450517E-21</v>
+        <v>1.0000000001355031E-20</v>
       </c>
       <c r="J4">
         <v>3.8493937393383995</v>
@@ -669,51 +1536,51 @@
         <v>500000000</v>
       </c>
       <c r="M4">
-        <v>0.99688958234179792</v>
+        <v>0.99687774673206886</v>
       </c>
       <c r="N4">
-        <v>0.96735507907764839</v>
+        <v>0.96712504697290846</v>
       </c>
       <c r="O4">
-        <v>0.98647326767444765</v>
+        <v>0.98625952846677123</v>
       </c>
       <c r="P4">
-        <v>8.8164127126615699E-2</v>
+        <v>8.8334639756482036E-2</v>
       </c>
       <c r="Q4">
-        <v>0.25687866406039672</v>
+        <v>0.25775155823855983</v>
       </c>
       <c r="R4">
-        <v>0.16988860230127531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.17112345919172037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>48.608670145485021</v>
+        <v>48.438689321329733</v>
       </c>
       <c r="B5">
-        <v>6.8427094730464334E-3</v>
+        <v>6.846410775083446E-3</v>
       </c>
       <c r="C5">
-        <v>0.35049899756838981</v>
+        <v>0.35125963898162244</v>
       </c>
       <c r="D5">
-        <v>9.9009900990143684</v>
+        <v>9.9010374427020178</v>
       </c>
       <c r="E5">
-        <v>9.5000000014450517E-21</v>
+        <v>8.7535711196777548E-21</v>
       </c>
       <c r="F5">
-        <v>0.62175954019116486</v>
+        <v>0.62217372802809168</v>
       </c>
       <c r="G5">
-        <v>37.59389577741463</v>
+        <v>37.538853455112744</v>
       </c>
       <c r="H5">
-        <v>0.41110855784650396</v>
+        <v>0.4113936575673981</v>
       </c>
       <c r="I5">
-        <v>4.1252761281842889E-21</v>
+        <v>9.0466344321813061E-21</v>
       </c>
       <c r="J5">
         <v>4.9395288423730381</v>
@@ -725,22 +1592,22 @@
         <v>500000000</v>
       </c>
       <c r="M5">
-        <v>0.99621949230377227</v>
+        <v>0.99621480602362422</v>
       </c>
       <c r="N5">
-        <v>0.98135012662202248</v>
+        <v>0.98134649795507634</v>
       </c>
       <c r="O5">
-        <v>0.98683134559126218</v>
+        <v>0.98683264029927487</v>
       </c>
       <c r="P5">
-        <v>9.6798800311219554E-2</v>
+        <v>9.686293469800035E-2</v>
       </c>
       <c r="Q5">
-        <v>0.19127718100544744</v>
+        <v>0.19129555006663043</v>
       </c>
       <c r="R5">
-        <v>0.16132241878067363</v>
+        <v>0.16131433695262831</v>
       </c>
       <c r="T5" s="1">
         <f>1/51</f>
@@ -776,33 +1643,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>48.397939872561572</v>
+        <v>48.25219833120012</v>
       </c>
       <c r="B6">
-        <v>1.4441051250145167E-2</v>
+        <v>1.4147100672082913E-2</v>
       </c>
       <c r="C6">
-        <v>0.33532158753435537</v>
+        <v>0.33623816066663575</v>
       </c>
       <c r="D6">
-        <v>9.9009900999285509</v>
+        <v>12.855931747078758</v>
       </c>
       <c r="E6">
-        <v>5.8226830347976742E-21</v>
+        <v>7.2636696250072512E-21</v>
       </c>
       <c r="F6">
-        <v>0.48014383089710039</v>
+        <v>0.49063115570190602</v>
       </c>
       <c r="G6">
-        <v>37.612081905367226</v>
+        <v>37.559250843701456</v>
       </c>
       <c r="H6">
-        <v>0.24019796159820667</v>
+        <v>0.24702696744241967</v>
       </c>
       <c r="I6">
-        <v>9.5000000014450517E-21</v>
+        <v>9.4593846773244065E-21</v>
       </c>
       <c r="J6">
         <v>2.8942547070821036</v>
@@ -814,22 +1681,22 @@
         <v>500000000</v>
       </c>
       <c r="M6">
-        <v>0.99696008364635469</v>
+        <v>0.99695616582432556</v>
       </c>
       <c r="N6">
-        <v>0.98685036638735291</v>
+        <v>0.98674328089469998</v>
       </c>
       <c r="O6">
-        <v>0.99248217583842835</v>
+        <v>0.99246831623516263</v>
       </c>
       <c r="P6">
-        <v>8.9129034776505855E-2</v>
+        <v>8.9188973256000365E-2</v>
       </c>
       <c r="Q6">
-        <v>0.17697547678814918</v>
+        <v>0.17756964165503675</v>
       </c>
       <c r="R6">
-        <v>0.14907467582518719</v>
+        <v>0.14923297680137948</v>
       </c>
       <c r="T6" s="1">
         <f>1/47</f>
@@ -862,33 +1729,33 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>48.053000379173632</v>
+        <v>48.070836684471423</v>
       </c>
       <c r="B7">
-        <v>9.5903151705865244E-3</v>
+        <v>9.6358707092832584E-3</v>
       </c>
       <c r="C7">
-        <v>0.24553205937077111</v>
+        <v>0.2454377403200981</v>
       </c>
       <c r="D7">
-        <v>25.639126202233633</v>
+        <v>24.308442340686678</v>
       </c>
       <c r="E7">
         <v>9.5000000014450517E-21</v>
       </c>
       <c r="F7">
-        <v>7.3935160337340267E-2</v>
+        <v>7.2583571907738287E-2</v>
       </c>
       <c r="G7">
-        <v>37.604780974947893</v>
+        <v>37.607971693761286</v>
       </c>
       <c r="H7">
-        <v>9.2375070809207802E-2</v>
+        <v>8.927485179089055E-2</v>
       </c>
       <c r="I7">
-        <v>9.409745765790999E-21</v>
+        <v>9.2166097455375311E-21</v>
       </c>
       <c r="J7">
         <v>2.8353267446861383</v>
@@ -900,51 +1767,51 @@
         <v>500000000</v>
       </c>
       <c r="M7">
-        <v>0.99601136952028391</v>
+        <v>0.99601188149968478</v>
       </c>
       <c r="N7">
-        <v>0.99806015220342459</v>
+        <v>0.99808182402871393</v>
       </c>
       <c r="O7">
-        <v>0.99606786150293813</v>
+        <v>0.99612819581689727</v>
       </c>
       <c r="P7">
-        <v>0.10511002887051982</v>
+        <v>0.10510111945280699</v>
       </c>
       <c r="Q7">
-        <v>6.7257585557653793E-2</v>
+        <v>6.6999814554148523E-2</v>
       </c>
       <c r="R7">
-        <v>9.956137607571057E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+        <v>9.8731106772009677E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>48.113474618074662</v>
+        <v>48.136892966660881</v>
       </c>
       <c r="B8">
-        <v>1.3285277921178364E-2</v>
+        <v>1.3279576334336515E-2</v>
       </c>
       <c r="C8">
-        <v>0.29566099165404069</v>
+        <v>0.29557546015367386</v>
       </c>
       <c r="D8">
-        <v>23.564371912618444</v>
+        <v>23.046133174350153</v>
       </c>
       <c r="E8">
-        <v>3.7733631137308716E-21</v>
+        <v>9.042963619420154E-21</v>
       </c>
       <c r="F8">
-        <v>0.1698476596956239</v>
+        <v>0.1687817766121027</v>
       </c>
       <c r="G8">
-        <v>37.400712459236814</v>
+        <v>37.403020990580472</v>
       </c>
       <c r="H8">
-        <v>0.34682923071628996</v>
+        <v>0.34414382511438774</v>
       </c>
       <c r="I8">
-        <v>1.0000000001355031E-20</v>
+        <v>6.0746162188647203E-21</v>
       </c>
       <c r="J8">
         <v>4.0588112288013249</v>
@@ -956,42 +1823,42 @@
         <v>500000000</v>
       </c>
       <c r="M8">
-        <v>0.99635447513348763</v>
+        <v>0.99635524973725098</v>
       </c>
       <c r="N8">
-        <v>0.99700286766378887</v>
+        <v>0.99700060142420299</v>
       </c>
       <c r="O8">
-        <v>0.98928926948233542</v>
+        <v>0.98937018248013242</v>
       </c>
       <c r="P8">
-        <v>9.898073831966922E-2</v>
+        <v>9.8969821082431728E-2</v>
       </c>
       <c r="Q8">
-        <v>7.8577637025040198E-2</v>
+        <v>7.860538176544804E-2</v>
       </c>
       <c r="R8">
-        <v>0.15300302712913091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.15245772652780046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>48.500422413160933</v>
+        <v>48.582995285944783</v>
       </c>
       <c r="B9">
-        <v>2.6472832472667143E-2</v>
+        <v>2.6472517685573429E-2</v>
       </c>
       <c r="C9">
-        <v>0.32476214708853873</v>
+        <v>0.32441104316221342</v>
       </c>
       <c r="D9">
-        <v>9.9009900990158854</v>
+        <v>9.900990099014491</v>
       </c>
       <c r="E9">
-        <v>7.378555726882468E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F9">
-        <v>3.4442703136785457</v>
+        <v>3.4442680860804629</v>
       </c>
       <c r="G9">
         <v>35.700000000028304</v>
@@ -1000,7 +1867,7 @@
         <v>9.9999999999999787</v>
       </c>
       <c r="I9">
-        <v>1.0000000001355031E-20</v>
+        <v>9.4705712487640815E-21</v>
       </c>
       <c r="J9">
         <v>4.5747910277060724</v>
@@ -1012,51 +1879,51 @@
         <v>500000000</v>
       </c>
       <c r="M9">
-        <v>0.99477050416379198</v>
+        <v>0.99477273201417726</v>
       </c>
       <c r="N9">
-        <v>0.95878151553360702</v>
+        <v>0.95878529036808346</v>
       </c>
       <c r="O9">
-        <v>0.97616057510439214</v>
+        <v>0.9761609215983218</v>
       </c>
       <c r="P9">
-        <v>0.11065048749998049</v>
+        <v>0.11062262956417433</v>
       </c>
       <c r="Q9">
-        <v>0.29358615671836835</v>
+        <v>0.29357357057085864</v>
       </c>
       <c r="R9">
-        <v>0.22006007502598543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.22005784675513207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>48.801514837951956</v>
+        <v>48.79507391103526</v>
       </c>
       <c r="B10">
-        <v>6.5214346442215429E-3</v>
+        <v>6.521685101012413E-3</v>
       </c>
       <c r="C10">
-        <v>0.21302963871284183</v>
+        <v>0.21304751733690458</v>
       </c>
       <c r="D10">
         <v>9.900990099014253</v>
       </c>
       <c r="E10">
-        <v>7.8124751995675807E-21</v>
+        <v>9.5470198600632456E-21</v>
       </c>
       <c r="F10">
-        <v>0.71727305681432241</v>
+        <v>0.71730499917852675</v>
       </c>
       <c r="G10">
-        <v>37.478180704521691</v>
+        <v>37.503002295966361</v>
       </c>
       <c r="H10">
-        <v>0.75786486113095664</v>
+        <v>0.75791989355088585</v>
       </c>
       <c r="I10">
-        <v>9.5000000014450517E-21</v>
+        <v>8.9244324090275208E-21</v>
       </c>
       <c r="J10">
         <v>1.7011335492393482</v>
@@ -1068,51 +1935,51 @@
         <v>500000000</v>
       </c>
       <c r="M10">
-        <v>0.99729792225504421</v>
+        <v>0.99729770870056522</v>
       </c>
       <c r="N10">
-        <v>0.98832430357866929</v>
+        <v>0.98832417683423701</v>
       </c>
       <c r="O10">
-        <v>0.98574866919047754</v>
+        <v>0.98574863109111766</v>
       </c>
       <c r="P10">
-        <v>9.4112814262173758E-2</v>
+        <v>9.4116471316490757E-2</v>
       </c>
       <c r="Q10">
-        <v>0.15267416977820733</v>
+        <v>0.15267499315828895</v>
       </c>
       <c r="R10">
-        <v>0.16933214743334757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.16933235048199194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>47.936560102433077</v>
+        <v>47.996847186642341</v>
       </c>
       <c r="B11">
-        <v>1.0069486887189477E-2</v>
+        <v>1.0112365083869401E-2</v>
       </c>
       <c r="C11">
-        <v>0.34815626468574024</v>
+        <v>0.3478106825493712</v>
       </c>
       <c r="D11">
-        <v>27.491482451509079</v>
+        <v>25.408604626865181</v>
       </c>
       <c r="E11">
-        <v>5.6356022130339305E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F11">
-        <v>0.10233054246148256</v>
+        <v>0.1001537490124294</v>
       </c>
       <c r="G11">
-        <v>37.58387155062178</v>
+        <v>37.587467806808888</v>
       </c>
       <c r="H11">
-        <v>0.16034112892839475</v>
+        <v>0.15531936398233329</v>
       </c>
       <c r="I11">
-        <v>9.4097429479798455E-21</v>
+        <v>9.9790955660199088E-21</v>
       </c>
       <c r="J11">
         <v>4.7135499010320805</v>
@@ -1124,51 +1991,51 @@
         <v>500000000</v>
       </c>
       <c r="M11">
-        <v>0.99673300317562963</v>
+        <v>0.996735151981057</v>
       </c>
       <c r="N11">
-        <v>0.98625414265678191</v>
+        <v>0.98625987667479142</v>
       </c>
       <c r="O11">
-        <v>0.98732962618568143</v>
+        <v>0.9873033885584771</v>
       </c>
       <c r="P11">
-        <v>9.2939241342293227E-2</v>
+        <v>9.2912023418827344E-2</v>
       </c>
       <c r="Q11">
-        <v>0.17309722708701938</v>
+        <v>0.17309479960217916</v>
       </c>
       <c r="R11">
-        <v>0.18402173736411218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.18406215110560489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50.748279725896388</v>
+        <v>48.753165411461808</v>
       </c>
       <c r="B12">
-        <v>0.18949149955989511</v>
+        <v>9.99999992140643E-2</v>
       </c>
       <c r="C12">
-        <v>0.17699550492510113</v>
+        <v>0.27646598802580402</v>
       </c>
       <c r="D12">
-        <v>9.9009901042695887</v>
+        <v>16.276862744224928</v>
       </c>
       <c r="E12">
-        <v>3.8470918588465785E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F12">
-        <v>4.9870130327657343</v>
+        <v>2.6106344197300499</v>
       </c>
       <c r="G12">
-        <v>35.700000079056508</v>
+        <v>35.90782270730125</v>
       </c>
       <c r="H12">
-        <v>9.9999991912995583</v>
+        <v>5.2066229113500269</v>
       </c>
       <c r="I12">
-        <v>9.4647290048534435E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="J12">
         <v>7.7486589205828764</v>
@@ -1180,51 +2047,51 @@
         <v>500000000</v>
       </c>
       <c r="M12">
-        <v>0.9971074986562618</v>
+        <v>0.99704357964996582</v>
       </c>
       <c r="N12">
-        <v>0.95720423666777499</v>
+        <v>0.95669301993194522</v>
       </c>
       <c r="O12">
-        <v>0.97501296743957178</v>
+        <v>0.97514418926333657</v>
       </c>
       <c r="P12">
-        <v>8.7553088319185277E-2</v>
+        <v>8.83830695083236E-2</v>
       </c>
       <c r="Q12">
-        <v>0.29239930601243269</v>
+        <v>0.29402726338201413</v>
       </c>
       <c r="R12">
-        <v>0.22137728328217079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.22081991434722092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>47.965006881207152</v>
+        <v>47.890214451702732</v>
       </c>
       <c r="B13">
-        <v>7.4689852216251072E-3</v>
+        <v>7.4552061245919746E-3</v>
       </c>
       <c r="C13">
-        <v>0.33899375071871835</v>
+        <v>0.33936712008969605</v>
       </c>
       <c r="D13">
-        <v>24.73779266633019</v>
+        <v>23.663104356285448</v>
       </c>
       <c r="E13">
-        <v>9.5000000014450517E-21</v>
+        <v>7.978865982613023E-21</v>
       </c>
       <c r="F13">
-        <v>0.16409776130617565</v>
+        <v>0.16179519453961316</v>
       </c>
       <c r="G13">
-        <v>37.298679709577961</v>
+        <v>37.305161383073468</v>
       </c>
       <c r="H13">
-        <v>0.53893383447783183</v>
+        <v>0.53008747835249159</v>
       </c>
       <c r="I13">
-        <v>5.7964146608514111E-21</v>
+        <v>4.6599108578787178E-21</v>
       </c>
       <c r="J13">
         <v>3.4607174140989807</v>
@@ -1236,51 +2103,51 @@
         <v>500000000</v>
       </c>
       <c r="M13">
-        <v>0.99728793084360046</v>
+        <v>0.99728541013518446</v>
       </c>
       <c r="N13">
-        <v>0.99744347230822084</v>
+        <v>0.99743214050348361</v>
       </c>
       <c r="O13">
-        <v>0.94369085952663478</v>
+        <v>0.94403566722656573</v>
       </c>
       <c r="P13">
-        <v>8.6760556840911898E-2</v>
+        <v>8.679560952334249E-2</v>
       </c>
       <c r="Q13">
-        <v>7.7832502688844965E-2</v>
+        <v>7.7969149783110731E-2</v>
       </c>
       <c r="R13">
-        <v>0.34286490544743353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.34185881075079688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>47.814318546466559</v>
+        <v>47.981337178692648</v>
       </c>
       <c r="B14">
-        <v>4.4588382125751707E-3</v>
+        <v>4.4662665198624526E-3</v>
       </c>
       <c r="C14">
-        <v>0.28659373037709196</v>
+        <v>0.28591540460266213</v>
       </c>
       <c r="D14">
-        <v>28.136796517526292</v>
+        <v>27.346775910814177</v>
       </c>
       <c r="E14">
-        <v>9.5136863374092964E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F14">
-        <v>3.7313289653377081E-2</v>
+        <v>3.6494725210559555E-2</v>
       </c>
       <c r="G14">
-        <v>37.638002262289028</v>
+        <v>37.64088097610118</v>
       </c>
       <c r="H14">
-        <v>7.0110251670814611E-2</v>
+        <v>6.6866530564930984E-2</v>
       </c>
       <c r="I14">
-        <v>9.9960872828195711E-21</v>
+        <v>9.9981676857314817E-21</v>
       </c>
       <c r="J14">
         <v>2.6726930549194257</v>
@@ -1292,48 +2159,48 @@
         <v>500000000</v>
       </c>
       <c r="M14">
-        <v>0.99719325533331893</v>
+        <v>0.99719937404334535</v>
       </c>
       <c r="N14">
-        <v>0.99715601340207405</v>
+        <v>0.99717136285706776</v>
       </c>
       <c r="O14">
-        <v>0.99494618515288202</v>
+        <v>0.99530179256003204</v>
       </c>
       <c r="P14">
-        <v>9.1482603872579157E-2</v>
+        <v>9.1394464668836745E-2</v>
       </c>
       <c r="Q14">
-        <v>8.7119293169015871E-2</v>
+        <v>8.6983595215449225E-2</v>
       </c>
       <c r="R14">
-        <v>0.11134676350417883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.10770760257277456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>47.498843584804519</v>
+        <v>48.087409303805707</v>
       </c>
       <c r="B15">
-        <v>6.0902257625915024E-3</v>
+        <v>6.0947399386754829E-3</v>
       </c>
       <c r="C15">
-        <v>0.42131793809050694</v>
+        <v>0.41772039147899842</v>
       </c>
       <c r="D15">
-        <v>18.667314175341531</v>
+        <v>19.438714336025861</v>
       </c>
       <c r="E15">
-        <v>9.5038933455566795E-21</v>
+        <v>9.5000103986317825E-21</v>
       </c>
       <c r="F15">
-        <v>9.5586186732767545E-2</v>
+        <v>9.7846133783316427E-2</v>
       </c>
       <c r="G15">
-        <v>37.640014179501513</v>
+        <v>37.628945781322827</v>
       </c>
       <c r="H15">
-        <v>0.10090398121476279</v>
+        <v>0.10516057179208881</v>
       </c>
       <c r="I15">
         <v>9.5000000014450517E-21</v>
@@ -1348,51 +2215,51 @@
         <v>500000000</v>
       </c>
       <c r="M15">
-        <v>0.99744000555059842</v>
+        <v>0.99745694766850301</v>
       </c>
       <c r="N15">
-        <v>0.98762959289041452</v>
+        <v>0.98767172064974962</v>
       </c>
       <c r="O15">
-        <v>0.98691445609807027</v>
+        <v>0.98629022306913772</v>
       </c>
       <c r="P15">
-        <v>8.0806029595537537E-2</v>
+        <v>8.0575171618930325E-2</v>
       </c>
       <c r="Q15">
-        <v>0.15692014248597874</v>
+        <v>0.15665871844532681</v>
       </c>
       <c r="R15">
-        <v>0.16469281946593772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.16852574300121156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>47.805142435427314</v>
+        <v>47.867896065482022</v>
       </c>
       <c r="B16">
-        <v>1.2129032784850261E-2</v>
+        <v>1.2114832766495588E-2</v>
       </c>
       <c r="C16">
-        <v>0.3501435254330989</v>
+        <v>0.34991214894018124</v>
       </c>
       <c r="D16">
-        <v>17.179219200674272</v>
+        <v>16.626836606582284</v>
       </c>
       <c r="E16">
-        <v>3.6110569609447987E-21</v>
+        <v>3.5668904311534509E-21</v>
       </c>
       <c r="F16">
-        <v>1.5311137138337843</v>
+        <v>1.5272916543327884</v>
       </c>
       <c r="G16">
-        <v>36.124847449149499</v>
+        <v>35.978119749070167</v>
       </c>
       <c r="H16">
-        <v>7.7831227035562129</v>
+        <v>7.7633851625403798</v>
       </c>
       <c r="I16">
-        <v>9.3932363648596761E-21</v>
+        <v>6.8743141386365292E-21</v>
       </c>
       <c r="J16">
         <v>5.287721053791727</v>
@@ -1404,25 +2271,25 @@
         <v>500000000</v>
       </c>
       <c r="M16">
-        <v>0.99204055559288729</v>
+        <v>0.99204213346429149</v>
       </c>
       <c r="N16">
-        <v>0.97896522873133685</v>
+        <v>0.97896492898400844</v>
       </c>
       <c r="O16">
-        <v>0.96272071033032092</v>
+        <v>0.96272219761866107</v>
       </c>
       <c r="P16">
-        <v>0.1324465330917266</v>
+        <v>0.13242809547729736</v>
       </c>
       <c r="Q16">
-        <v>0.22537946839950984</v>
+        <v>0.2253800734774018</v>
       </c>
       <c r="R16">
-        <v>0.27042478498885109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>0.27041956678193518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I17">
         <f>_xlfn.IFS(ABS(1/A1-T$5)&lt;=0.001*(1/A1),"Lower",ABS(1/A1-T$6)&lt;=0.001*(1/A1),"Upper",TRUE,1)</f>
         <v>1</v>
@@ -1460,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -1510,25 +2377,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19">
         <f>AVERAGE(A$1:A$3)</f>
-        <v>47.953746055279247</v>
+        <v>47.982498041589629</v>
       </c>
       <c r="C19">
         <f>AVERAGE(A$4:A$6)</f>
-        <v>48.666879436370145</v>
+        <v>48.406496276539286</v>
       </c>
       <c r="D19">
         <f>AVERAGE(A$7:A$12)</f>
-        <v>48.692208679448441</v>
+        <v>48.389301907702752</v>
       </c>
       <c r="E19">
         <f>AVERAGE(A$13:A$16)</f>
-        <v>47.770827861976386</v>
+        <v>47.956714249920779</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1567,22 +2434,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>STDEV(A$1:A$3)/SQRT(COUNT(A$1:A$3))</f>
-        <v>4.6199583958770919E-2</v>
+        <v>0.13018034702067366</v>
       </c>
       <c r="C20">
         <f>STDEV(A$4:A$6)/SQRT(COUNT(A$4:A$6))</f>
-        <v>0.17451990509886051</v>
+        <v>8.1398049533123545E-2</v>
       </c>
       <c r="D20">
         <f>STDEV(A$7:A$12)/SQRT(COUNT(A$7:A$12))</f>
-        <v>0.43168982279504808</v>
+        <v>0.14761614329507544</v>
       </c>
       <c r="E20">
         <f>STDEV(A$13:A$16)/SQRT(COUNT(A$13:A$16))</f>
-        <v>9.7787979887896795E-2</v>
+        <v>4.9998648966186075E-2</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -1604,13 +2471,13 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N20" t="str">
+      <c r="N20">
         <f t="shared" si="3"/>
-        <v>Upper</v>
-      </c>
-      <c r="O20" t="str">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="0"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -1625,7 +2492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1667,7 +2534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -1725,29 +2592,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>STDEV(B5:B16)/SQRT(12)</f>
-        <v>1.4997086979949316E-2</v>
+        <v>7.6335850065731257E-3</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
         <f>AVERAGE(B$1:B$3)</f>
-        <v>2.3409654095907701E-3</v>
+        <v>2.3513378530276648E-3</v>
       </c>
       <c r="D23">
         <f>AVERAGE(B$4:B$6)</f>
-        <v>5.9461955118685343E-2</v>
+        <v>4.0331166243549099E-2</v>
       </c>
       <c r="E23">
         <f>AVERAGE(B$7:B$12)</f>
-        <v>4.2571807775956365E-2</v>
+        <v>2.7670335688023222E-2</v>
       </c>
       <c r="F23">
         <f>AVERAGE(B$13:B$16)</f>
-        <v>7.5367704954105094E-3</v>
+        <v>7.5327613374063743E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
@@ -1786,22 +2653,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>STDEV(B$1:B$3)/SQRT(COUNT(B$1:B$3))</f>
-        <v>8.4218375556733687E-5</v>
+        <v>8.3308282150204604E-5</v>
       </c>
       <c r="D24">
         <f>STDEV(B$4:B$6)/SQRT(COUNT(B$4:B$6))</f>
-        <v>4.8869325066288889E-2</v>
+        <v>2.9908756641183396E-2</v>
       </c>
       <c r="E24">
         <f>STDEV(B$7:B$12)/SQRT(COUNT(B$7:B$12))</f>
-        <v>2.9521790139494151E-2</v>
+        <v>1.4743245491851775E-2</v>
       </c>
       <c r="F24">
         <f>STDEV(B$13:B$16)/SQRT(COUNT(B$13:B$16))</f>
-        <v>1.6497380241551239E-3</v>
+        <v>1.6450098632313744E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -1840,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I25">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1878,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -1928,25 +2795,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27">
         <f>AVERAGE(C$1:C$3)</f>
-        <v>0.30764854958560456</v>
+        <v>0.3074240385172744</v>
       </c>
       <c r="E27">
         <f>AVERAGE(C$4:C$6)</f>
-        <v>0.30321029164025753</v>
+        <v>0.32354584887929788</v>
       </c>
       <c r="F27">
         <f>AVERAGE(C$7:C$12)</f>
-        <v>0.26735610107283891</v>
+        <v>0.28379140525801089</v>
       </c>
       <c r="G27">
         <f>AVERAGE(C$13:C$16)</f>
-        <v>0.34926223615485402</v>
+        <v>0.34822876627788446</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
@@ -1985,22 +2852,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>STDEV(C$1:C$3)/SQRT(COUNT(C$1:C$3))</f>
-        <v>2.2424416544721611E-2</v>
+        <v>2.201938584258277E-2</v>
       </c>
       <c r="E28">
         <f>STDEV(C$4:C$6)/SQRT(COUNT(C$4:C$6))</f>
-        <v>3.9941034291661015E-2</v>
+        <v>2.0663179854758112E-2</v>
       </c>
       <c r="F28">
         <f>STDEV(C$7:C$12)/SQRT(COUNT(C$7:C$12))</f>
-        <v>2.7213953550083173E-2</v>
+        <v>2.0344245564901324E-2</v>
       </c>
       <c r="G28">
         <f>STDEV(C$13:C$16)/SQRT(COUNT(C$13:C$16))</f>
-        <v>2.7727219270663059E-2</v>
+        <v>2.7069976552618131E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
@@ -2026,20 +2893,20 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O28" t="str">
+      <c r="O28">
         <f t="shared" si="0"/>
-        <v>Upper</v>
-      </c>
-      <c r="P28" t="str">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="4"/>
-        <v>Upper</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I29">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2077,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -2127,29 +2994,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>STDEV(D5:D16)/SQRT(12)</f>
-        <v>2.2302177539526671</v>
+        <v>1.8852527504938441</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
         <f>AVERAGE(D$1:D$3)</f>
-        <v>27.134730586358483</v>
+        <v>25.958611998482649</v>
       </c>
       <c r="F31">
         <f>AVERAGE(D$4:D$6)</f>
-        <v>9.900990099319058</v>
+        <v>11.736358034137011</v>
       </c>
       <c r="G31">
         <f>AVERAGE(D$7:D$12)</f>
-        <v>17.732991811443483</v>
+        <v>18.140337180692615</v>
       </c>
       <c r="H31">
         <f>AVERAGE(D$13:D$16)</f>
-        <v>22.180280639968071</v>
+        <v>21.768857802426943</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2188,26 +3055,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>MIN(D5:D14)</f>
         <v>9.900990099014253</v>
       </c>
       <c r="E32">
         <f>STDEV(D$1:D$3)/SQRT(COUNT(D$1:D$3))</f>
-        <v>1.7310767817934607</v>
+        <v>1.8935657399056376</v>
       </c>
       <c r="F32">
         <f>STDEV(D$4:D$6)/SQRT(COUNT(D$4:D$6))</f>
-        <v>3.047467481795404E-10</v>
+        <v>0.92503518546848451</v>
       </c>
       <c r="G32">
         <f>STDEV(D$7:D$12)/SQRT(COUNT(D$7:D$12))</f>
-        <v>3.5391187549539285</v>
+        <v>2.9108205309689565</v>
       </c>
       <c r="H32">
         <f>STDEV(D$13:D$16)/SQRT(COUNT(D$13:D$16))</f>
-        <v>2.5718426932482363</v>
+        <v>2.3553359806902039</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
@@ -2246,13 +3113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>MAX(G5:G14)</f>
-        <v>37.638002262289028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37.64088097610118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>0</v>
       </c>
@@ -2266,46 +3133,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35">
         <f>AVERAGE(E$1:E$3)</f>
-        <v>8.0196061444978262E-21</v>
+        <v>7.482037056287997E-21</v>
       </c>
       <c r="G35">
         <f>AVERAGE(E$4:E$6)</f>
-        <v>6.2813229890789705E-21</v>
+        <v>8.5057469153766854E-21</v>
       </c>
       <c r="H35">
         <f>AVERAGE(E$7:E$12)</f>
-        <v>6.3245146855844133E-21</v>
+        <v>9.4316639142106011E-21</v>
       </c>
       <c r="I35">
         <f>AVERAGE(E$13:E$16)</f>
-        <v>8.0321591613389566E-21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7.636441703460827E-21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F36">
         <f>STDEV(E$1:E$3)/SQRT(COUNT(E$1:E$3))</f>
-        <v>1.4129933777846814E-21</v>
+        <v>1.6568430850951627E-21</v>
       </c>
       <c r="G36">
         <f>STDEV(E$4:E$6)/SQRT(COUNT(E$4:E$6))</f>
-        <v>1.7410742315975648E-21</v>
+        <v>6.5735733948457149E-22</v>
       </c>
       <c r="H36">
         <f>STDEV(E$7:E$12)/SQRT(COUNT(E$7:E$12))</f>
-        <v>9.4037819695071591E-22</v>
+        <v>7.8118328341859392E-23</v>
       </c>
       <c r="I36">
         <f>STDEV(E$13:E$16)/SQRT(COUNT(E$13:E$16))</f>
-        <v>1.4737035455116529E-21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.4030989439005636E-21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>0</v>
       </c>
@@ -2319,50 +3186,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E39">
         <f>STDEV(F5:F16)/SQRT(12)</f>
-        <v>0.45582970645233634</v>
+        <v>0.32353894503914765</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
       <c r="G39">
         <f>AVERAGE(F$1:F$3)</f>
-        <v>0.12317837997612407</v>
+        <v>0.12234565493769074</v>
       </c>
       <c r="H39">
         <f>AVERAGE(F$4:F$6)</f>
-        <v>3.7006344570294147</v>
+        <v>2.4857362648737031</v>
       </c>
       <c r="I39">
         <f>AVERAGE(F$7:F$12)</f>
-        <v>1.5824449609588414</v>
+        <v>1.1856211004202184</v>
       </c>
       <c r="J39">
         <f>AVERAGE(F$13:F$16)</f>
-        <v>0.45702773788152612</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.45585692696656938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G40">
         <f>STDEV(F$1:F$3)/SQRT(COUNT(F$1:F$3))</f>
-        <v>1.1951083376439161E-2</v>
+        <v>1.1696747032351034E-2</v>
       </c>
       <c r="H40">
         <f>STDEV(F$4:F$6)/SQRT(COUNT(F$4:F$6))</f>
-        <v>3.1499480649291844</v>
+        <v>1.9297074790323099</v>
       </c>
       <c r="I40">
         <f>STDEV(F$7:F$12)/SQRT(COUNT(F$7:F$12))</f>
-        <v>0.86154457167091925</v>
+        <v>0.60007008640704373</v>
       </c>
       <c r="J40">
         <f>STDEV(F$13:F$16)/SQRT(COUNT(F$13:F$16))</f>
-        <v>0.35896481580860057</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.3580597089152423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
         <v>0</v>
       </c>
@@ -2376,46 +3243,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>11</v>
       </c>
       <c r="H43">
         <f>AVERAGE(G$1:G$3)</f>
-        <v>37.635053645741927</v>
+        <v>37.635909075909467</v>
       </c>
       <c r="I43">
         <f>AVERAGE(G$4:G$6)</f>
-        <v>36.970416888443594</v>
+        <v>36.966373477658294</v>
       </c>
       <c r="J43">
         <f>AVERAGE(G$7:G$12)</f>
-        <v>36.911257628068832</v>
+        <v>36.951547582407763</v>
       </c>
       <c r="K43">
         <f>AVERAGE(G$13:G$16)</f>
-        <v>37.175385900129498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37.138276972391907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H44">
         <f>STDEV(G$1:G$3)/SQRT(COUNT(G$1:G$3))</f>
-        <v>1.5408364937843274E-2</v>
+        <v>1.5398613756017173E-2</v>
       </c>
       <c r="I44">
         <f>STDEV(G$4:G$6)/SQRT(COUNT(G$4:G$6))</f>
-        <v>0.63259373765982907</v>
+        <v>0.58270842248308452</v>
       </c>
       <c r="J44">
         <f>STDEV(G$7:G$12)/SQRT(COUNT(G$7:G$12))</f>
-        <v>0.3842152963887373</v>
+        <v>0.36510047252035949</v>
       </c>
       <c r="K44">
         <f>STDEV(G$13:G$16)/SQRT(COUNT(G$13:G$16))</f>
-        <v>0.35924988250585954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.39445974170972326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>0</v>
       </c>
@@ -2429,46 +3296,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>12</v>
       </c>
       <c r="I47">
         <f>AVERAGE(H$1:H$3)</f>
-        <v>7.6142384948720276E-2</v>
+        <v>7.5181521579469876E-2</v>
       </c>
       <c r="J47">
         <f>AVERAGE(H$4:H$6)</f>
-        <v>3.3964714098107804</v>
+        <v>2.228455393536303</v>
       </c>
       <c r="K47">
         <f>AVERAGE(H$7:H$12)</f>
-        <v>3.5595682471473977</v>
+        <v>2.7588801409647505</v>
       </c>
       <c r="L47">
         <f>AVERAGE(H$13:H$16)</f>
-        <v>2.1232676927299057</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.1163749358124728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I48">
         <f>STDEV(H$1:H$3)/SQRT(COUNT(H$1:H$3))</f>
-        <v>1.2550289184601635E-2</v>
+        <v>1.2653131657917406E-2</v>
       </c>
       <c r="J48">
         <f>STDEV(H$4:H$6)/SQRT(COUNT(H$4:H$6))</f>
-        <v>3.0712144688334058</v>
+        <v>1.8998376891786923</v>
       </c>
       <c r="K48">
         <f>STDEV(H$7:H$12)/SQRT(COUNT(H$7:H$12))</f>
-        <v>2.0388372444749057</v>
+        <v>1.6549458801738428</v>
       </c>
       <c r="L48">
         <f>STDEV(H$13:H$16)/SQRT(COUNT(H$13:H$16))</f>
-        <v>1.8896534730255257</v>
-      </c>
-    </row>
-    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
+        <v>1.8852608201450238</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>0</v>
       </c>
@@ -2482,46 +3349,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>13</v>
       </c>
       <c r="J51">
         <f>AVERAGE(I$1:I$3)</f>
-        <v>9.8219093760996536E-21</v>
+        <v>8.8967520771387365E-21</v>
       </c>
       <c r="K51">
         <f>AVERAGE(I$4:I$6)</f>
-        <v>7.7084253770247974E-21</v>
+        <v>9.5020063702869141E-21</v>
       </c>
       <c r="L51">
         <f>AVERAGE(I$7:I$12)</f>
-        <v>9.630702953796567E-21</v>
+        <v>8.8608875316098024E-21</v>
       </c>
       <c r="M51">
         <f>AVERAGE(I$13:I$16)</f>
-        <v>8.6714345774939275E-21</v>
-      </c>
-    </row>
-    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
+        <v>7.7580981709229451E-21</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J52">
         <f>STDEV(I$1:I$3)/SQRT(COUNT(I$1:I$3))</f>
-        <v>1.7809062525537753E-22</v>
+        <v>3.1771530877073478E-22</v>
       </c>
       <c r="K52">
         <f>STDEV(I$4:I$6)/SQRT(COUNT(I$4:I$6))</f>
-        <v>1.7915746244202543E-21</v>
+        <v>2.7603679323279104E-22</v>
       </c>
       <c r="L52">
         <f>STDEV(I$7:I$12)/SQRT(COUNT(I$7:I$12))</f>
-        <v>1.1762038304843645E-22</v>
+        <v>5.7516525930771034E-22</v>
       </c>
       <c r="M52">
         <f>STDEV(I$13:I$16)/SQRT(COUNT(I$13:I$16))</f>
-        <v>9.6729704128003785E-22</v>
-      </c>
-    </row>
-    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
+        <v>1.2393537382033517E-21</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>0</v>
       </c>
@@ -2535,7 +3402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:16" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>14</v>
       </c>
@@ -2556,7 +3423,7 @@
         <v>3.9072842672704491</v>
       </c>
     </row>
-    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K56">
         <f>STDEV(J$1:J$3)/SQRT(COUNT(J$1:J$3))</f>
         <v>0.41990446890825722</v>
@@ -2574,7 +3441,7 @@
         <v>0.55675222086004894</v>
       </c>
     </row>
-    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:16" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>15</v>
       </c>
@@ -2609,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L60">
         <f>STDEV(K$1:K$3)/SQRT(COUNT(K$1:K$3))</f>
         <v>0</v>
@@ -2627,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
         <v>0</v>
       </c>
@@ -2641,7 +3508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
         <v>16</v>
       </c>
@@ -2662,7 +3529,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:16" x14ac:dyDescent="0.25">
       <c r="M64">
         <f>STDEV(L$1:L$3)/SQRT(COUNT(L$1:L$3))</f>
         <v>0</v>
@@ -2680,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>0</v>
       </c>
@@ -2694,46 +3561,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>17</v>
       </c>
       <c r="N67">
         <f>AVERAGE(M$1:M$3)</f>
-        <v>0.99702424672835155</v>
+        <v>0.99702536813746778</v>
       </c>
       <c r="O67">
         <f>AVERAGE(M$4:M$6)</f>
-        <v>0.99668971943064166</v>
+        <v>0.99668290619333944</v>
       </c>
       <c r="P67">
         <f>AVERAGE(M$7:M$12)</f>
-        <v>0.99637912881741653</v>
+        <v>0.99636938393045027</v>
       </c>
       <c r="Q67">
         <f>AVERAGE(M$13:M$16)</f>
-        <v>0.99599043683010136</v>
-      </c>
-    </row>
-    <row r="68" spans="13:20" x14ac:dyDescent="0.3">
+        <v>0.99599596632783105</v>
+      </c>
+    </row>
+    <row r="68" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N68">
         <f>STDEV(M$1:M$3)/SQRT(COUNT(M$1:M$3))</f>
-        <v>2.9246371349791301E-4</v>
+        <v>2.9587770604108969E-4</v>
       </c>
       <c r="O68">
         <f>STDEV(M$4:M$6)/SQRT(COUNT(M$4:M$6))</f>
-        <v>2.3599277645647624E-4</v>
+        <v>2.3514230809818667E-4</v>
       </c>
       <c r="P68">
         <f>STDEV(M$7:M$12)/SQRT(COUNT(M$7:M$12))</f>
-        <v>3.7520923254345107E-4</v>
+        <v>3.7091859479880507E-4</v>
       </c>
       <c r="Q68">
         <f>STDEV(M$13:M$16)/SQRT(COUNT(M$13:M$16))</f>
-        <v>1.317607501315921E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="13:20" x14ac:dyDescent="0.3">
+        <v>1.3190310917702219E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O70" t="s">
         <v>0</v>
       </c>
@@ -2747,46 +3614,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N71" t="s">
         <v>18</v>
       </c>
       <c r="O71">
         <f>AVERAGE(N$1:N$3)</f>
-        <v>0.98984152611027965</v>
+        <v>0.98988355869478539</v>
       </c>
       <c r="P71">
         <f>AVERAGE(N$4:N$6)</f>
-        <v>0.97851852402900796</v>
+        <v>0.97840494194089489</v>
       </c>
       <c r="Q71">
         <f>AVERAGE(N$7:N$12)</f>
-        <v>0.9809378697173412</v>
+        <v>0.98085746487699577</v>
       </c>
       <c r="R71">
         <f>AVERAGE(N$13:N$16)</f>
-        <v>0.99029857683301148</v>
-      </c>
-    </row>
-    <row r="72" spans="13:20" x14ac:dyDescent="0.3">
+        <v>0.99031003824857733</v>
+      </c>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O72">
         <f>STDEV(N$1:N$3)/SQRT(COUNT(N$1:N$3))</f>
-        <v>1.9847909697636684E-3</v>
+        <v>1.9417406979686065E-3</v>
       </c>
       <c r="P72">
         <f>STDEV(N$4:N$6)/SQRT(COUNT(N$4:N$6))</f>
-        <v>5.8031611142995883E-3</v>
+        <v>5.8511633997282387E-3</v>
       </c>
       <c r="Q72">
         <f>STDEV(N$7:N$12)/SQRT(COUNT(N$7:N$12))</f>
-        <v>7.5017070238569622E-3</v>
+        <v>7.5571567261521122E-3</v>
       </c>
       <c r="R72">
         <f>STDEV(N$13:N$16)/SQRT(COUNT(N$13:N$16))</f>
-        <v>4.4125032779020511E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="13:20" x14ac:dyDescent="0.3">
+        <v>4.4109177039261364E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P74" t="s">
         <v>0</v>
       </c>
@@ -2800,46 +3667,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:20" x14ac:dyDescent="0.25">
       <c r="O75" t="s">
         <v>19</v>
       </c>
       <c r="P75">
         <f>AVERAGE(O$1:O$3)</f>
-        <v>0.99427618159527731</v>
+        <v>0.99429523577593526</v>
       </c>
       <c r="Q75">
         <f>AVERAGE(O$4:O$6)</f>
-        <v>0.98859559636804606</v>
+        <v>0.98852016166706969</v>
       </c>
       <c r="R75">
         <f>AVERAGE(O$7:O$12)</f>
-        <v>0.98493482815089928</v>
+        <v>0.98497591813471386</v>
       </c>
       <c r="S75">
         <f>AVERAGE(O$13:O$16)</f>
-        <v>0.97206805277697694</v>
-      </c>
-    </row>
-    <row r="76" spans="13:20" x14ac:dyDescent="0.3">
+        <v>0.97208747011859908</v>
+      </c>
+    </row>
+    <row r="76" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P76">
         <f>STDEV(O$1:O$3)/SQRT(COUNT(O$1:O$3))</f>
-        <v>5.6083180326475985E-4</v>
+        <v>5.7485734183384868E-4</v>
       </c>
       <c r="Q76">
         <f>STDEV(O$4:O$6)/SQRT(COUNT(O$4:O$6))</f>
-        <v>1.9460369929102384E-3</v>
+        <v>1.9809978683569601E-3</v>
       </c>
       <c r="R76">
         <f>STDEV(O$7:O$12)/SQRT(COUNT(O$7:O$12))</f>
-        <v>3.2900548237111563E-3</v>
+        <v>3.2866604989528394E-3</v>
       </c>
       <c r="S76">
         <f>STDEV(O$13:O$16)/SQRT(COUNT(O$13:O$16))</f>
-        <v>1.1677837057735797E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="13:20" x14ac:dyDescent="0.3">
+        <v>1.1601849465639941E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="13:20" x14ac:dyDescent="0.25">
       <c r="Q78" t="s">
         <v>0</v>
       </c>
@@ -2853,46 +3720,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:20" x14ac:dyDescent="0.25">
       <c r="P79" t="s">
         <v>20</v>
       </c>
       <c r="Q79">
         <f>AVERAGE(P$1:P$3)</f>
-        <v>9.202726806954159E-2</v>
+        <v>9.2015004429927494E-2</v>
       </c>
       <c r="R79">
         <f>AVERAGE(P$4:P$6)</f>
-        <v>9.136398740478037E-2</v>
+        <v>9.1462182570160921E-2</v>
       </c>
       <c r="S79">
         <f>AVERAGE(P$7:P$12)</f>
-        <v>9.8224399768970308E-2</v>
+        <v>9.8350855723842459E-2</v>
       </c>
       <c r="T79">
         <f>AVERAGE(P$13:P$16)</f>
-        <v>9.7873930850188806E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="13:20" x14ac:dyDescent="0.3">
+        <v>9.7798335322101748E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="13:20" x14ac:dyDescent="0.25">
       <c r="Q80">
         <f>STDEV(P$1:P$3)/SQRT(COUNT(P$1:P$3))</f>
-        <v>4.5845319158060761E-3</v>
+        <v>4.631290905994811E-3</v>
       </c>
       <c r="R80">
         <f>STDEV(P$4:P$6)/SQRT(COUNT(P$4:P$6))</f>
-        <v>2.7316451202649898E-3</v>
+        <v>2.711614776713403E-3</v>
       </c>
       <c r="S80">
         <f>STDEV(P$7:P$12)/SQRT(COUNT(P$7:P$12))</f>
-        <v>3.4694212555757727E-3</v>
+        <v>3.3833577104386923E-3</v>
       </c>
       <c r="T80">
         <f>STDEV(P$13:P$16)/SQRT(COUNT(P$13:P$16))</f>
-        <v>1.1729358540982048E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="17:22" x14ac:dyDescent="0.3">
+        <v>1.175417369383825E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R82" t="s">
         <v>0</v>
       </c>
@@ -2906,46 +3773,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q83" t="s">
         <v>21</v>
       </c>
       <c r="R83">
         <f>AVERAGE(Q$1:Q$3)</f>
-        <v>0.14177266984077372</v>
+        <v>0.14154659729558908</v>
       </c>
       <c r="S83">
         <f>AVERAGE(Q$4:Q$6)</f>
-        <v>0.20837710728466444</v>
+        <v>0.20887224998674234</v>
       </c>
       <c r="T83">
         <f>AVERAGE(Q$7:Q$12)</f>
-        <v>0.17626534702978694</v>
+        <v>0.1764959705054896</v>
       </c>
       <c r="U83">
         <f>AVERAGE(Q$13:Q$16)</f>
-        <v>0.13681285168583734</v>
-      </c>
-    </row>
-    <row r="84" spans="17:22" x14ac:dyDescent="0.3">
+        <v>0.13674788423032214</v>
+      </c>
+    </row>
+    <row r="84" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R84">
         <f>STDEV(Q$1:Q$3)/SQRT(COUNT(Q$1:Q$3))</f>
-        <v>1.3709740245848465E-2</v>
+        <v>1.3404536056360798E-2</v>
       </c>
       <c r="S84">
         <f>STDEV(Q$4:Q$6)/SQRT(COUNT(Q$4:Q$6))</f>
-        <v>2.4599698122348076E-2</v>
+        <v>2.4758770983316945E-2</v>
       </c>
       <c r="T84">
         <f>STDEV(Q$7:Q$12)/SQRT(COUNT(Q$7:Q$12))</f>
-        <v>4.0514783388367996E-2</v>
+        <v>4.0690601576439243E-2</v>
       </c>
       <c r="U84">
         <f>STDEV(Q$13:Q$16)/SQRT(COUNT(Q$13:Q$16))</f>
-        <v>3.4395348601833513E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="17:22" x14ac:dyDescent="0.3">
+        <v>3.4379657713827345E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="17:22" x14ac:dyDescent="0.25">
       <c r="S86" t="s">
         <v>0</v>
       </c>
@@ -2959,43 +3826,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R87" t="s">
         <v>22</v>
       </c>
       <c r="S87">
         <f>AVERAGE(R$1:R$3)</f>
-        <v>0.12841580049839227</v>
+        <v>0.12818304018528129</v>
       </c>
       <c r="T87">
         <f>AVERAGE(R$4:R$6)</f>
-        <v>0.16009523230237871</v>
+        <v>0.16055692431524271</v>
       </c>
       <c r="U87">
         <f>AVERAGE(R$7:R$12)</f>
-        <v>0.17455927438507624</v>
+        <v>0.17424351599829332</v>
       </c>
       <c r="V87">
         <f>AVERAGE(R$13:R$16)</f>
-        <v>0.22233231835160028</v>
-      </c>
-    </row>
-    <row r="88" spans="17:22" x14ac:dyDescent="0.3">
+        <v>0.22212793077667953</v>
+      </c>
+    </row>
+    <row r="88" spans="17:22" x14ac:dyDescent="0.25">
       <c r="S88">
         <f>STDEV(R$1:R$3)/SQRT(COUNT(R$1:R$3))</f>
-        <v>1.4844088835884098E-2</v>
+        <v>1.4971954313863188E-2</v>
       </c>
       <c r="T88">
         <f>STDEV(R$4:R$6)/SQRT(COUNT(R$4:R$6))</f>
-        <v>6.0397122952279489E-3</v>
+        <v>6.3305755464494089E-3</v>
       </c>
       <c r="U88">
         <f>STDEV(R$7:R$12)/SQRT(COUNT(R$7:R$12))</f>
-        <v>1.8680173468531389E-2</v>
+        <v>1.8766622407849917E-2</v>
       </c>
       <c r="V88">
         <f>STDEV(R$13:R$16)/SQRT(COUNT(R$13:R$16))</f>
-        <v>5.2026511763915442E-2</v>
+        <v>5.2147844129332974E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3048,5 +3915,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>